--- a/Code/Results/Cases/Case_6_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_1/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040517029834035</v>
+        <v>1.032449593353056</v>
       </c>
       <c r="D2">
-        <v>1.057531300919734</v>
+        <v>1.051352943908689</v>
       </c>
       <c r="E2">
-        <v>1.051354843406261</v>
+        <v>1.044963932769462</v>
       </c>
       <c r="F2">
-        <v>1.063337493395534</v>
+        <v>1.056981699246115</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.068443753471816</v>
+        <v>1.065473743267101</v>
       </c>
       <c r="J2">
-        <v>1.061549914647838</v>
+        <v>1.053701242835756</v>
       </c>
       <c r="K2">
-        <v>1.068243356602455</v>
+        <v>1.062140371840584</v>
       </c>
       <c r="L2">
-        <v>1.062142247996081</v>
+        <v>1.055830470683541</v>
       </c>
       <c r="M2">
-        <v>1.073979707220323</v>
+        <v>1.06770041538494</v>
       </c>
       <c r="N2">
-        <v>1.063057437288115</v>
+        <v>1.055197619461804</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.047026764580797</v>
+        <v>1.036633354801785</v>
       </c>
       <c r="D3">
-        <v>1.062724242641939</v>
+        <v>1.054633109970171</v>
       </c>
       <c r="E3">
-        <v>1.056868500123002</v>
+        <v>1.048406481930766</v>
       </c>
       <c r="F3">
-        <v>1.068989222697797</v>
+        <v>1.060634501460933</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.070909101011821</v>
+        <v>1.067007441429754</v>
       </c>
       <c r="J3">
-        <v>1.066312653723399</v>
+        <v>1.05617284131885</v>
       </c>
       <c r="K3">
-        <v>1.072612854032892</v>
+        <v>1.064611601003612</v>
       </c>
       <c r="L3">
-        <v>1.066821990225066</v>
+        <v>1.058455305550614</v>
       </c>
       <c r="M3">
-        <v>1.078809386947182</v>
+        <v>1.070546165075979</v>
       </c>
       <c r="N3">
-        <v>1.067826939999457</v>
+        <v>1.057672727898241</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.051131214765313</v>
+        <v>1.03929020818101</v>
       </c>
       <c r="D4">
-        <v>1.066000265573831</v>
+        <v>1.056718467956043</v>
       </c>
       <c r="E4">
-        <v>1.060349561478781</v>
+        <v>1.050597771618864</v>
       </c>
       <c r="F4">
-        <v>1.072557323351861</v>
+        <v>1.062958894660215</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.072450893593139</v>
+        <v>1.067972093054048</v>
       </c>
       <c r="J4">
-        <v>1.069311627845374</v>
+        <v>1.05773960154962</v>
       </c>
       <c r="K4">
-        <v>1.075362402705458</v>
+        <v>1.066177350692179</v>
       </c>
       <c r="L4">
-        <v>1.069770350389246</v>
+        <v>1.060121596376178</v>
       </c>
       <c r="M4">
-        <v>1.081852344824003</v>
+        <v>1.072352505259112</v>
       </c>
       <c r="N4">
-        <v>1.070830173008672</v>
+        <v>1.059241713108249</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052832155840859</v>
+        <v>1.040395487925513</v>
       </c>
       <c r="D5">
-        <v>1.067358258384555</v>
+        <v>1.057586517838208</v>
       </c>
       <c r="E5">
-        <v>1.061793209949691</v>
+        <v>1.051510569320646</v>
       </c>
       <c r="F5">
-        <v>1.07403703386011</v>
+        <v>1.063926964445779</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.073086752813726</v>
+        <v>1.068371132187659</v>
       </c>
       <c r="J5">
-        <v>1.070553440226291</v>
+        <v>1.058390690274721</v>
       </c>
       <c r="K5">
-        <v>1.076500484459444</v>
+        <v>1.066827827303419</v>
       </c>
       <c r="L5">
-        <v>1.070991592200164</v>
+        <v>1.060814620940269</v>
       </c>
       <c r="M5">
-        <v>1.083112798306667</v>
+        <v>1.07310373074193</v>
       </c>
       <c r="N5">
-        <v>1.072073748905608</v>
+        <v>1.05989372645402</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.05311634483907</v>
+        <v>1.040580396313886</v>
       </c>
       <c r="D6">
-        <v>1.067585167735067</v>
+        <v>1.057731768082914</v>
       </c>
       <c r="E6">
-        <v>1.062034470914214</v>
+        <v>1.051663345720074</v>
       </c>
       <c r="F6">
-        <v>1.074284319375285</v>
+        <v>1.064088981696255</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.073192808005885</v>
+        <v>1.068437755490214</v>
       </c>
       <c r="J6">
-        <v>1.07076085871141</v>
+        <v>1.058499572545187</v>
       </c>
       <c r="K6">
-        <v>1.076690550143179</v>
+        <v>1.066936595742981</v>
       </c>
       <c r="L6">
-        <v>1.071195597392352</v>
+        <v>1.060930549975597</v>
       </c>
       <c r="M6">
-        <v>1.083323355265454</v>
+        <v>1.073229392840041</v>
       </c>
       <c r="N6">
-        <v>1.072281461948768</v>
+        <v>1.060002763349799</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.051154037796546</v>
+        <v>1.039305022305887</v>
       </c>
       <c r="D7">
-        <v>1.066018485622232</v>
+        <v>1.056730100479683</v>
       </c>
       <c r="E7">
-        <v>1.060368928127054</v>
+        <v>1.050610001212661</v>
       </c>
       <c r="F7">
-        <v>1.072577173914478</v>
+        <v>1.06297186546623</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.072459437727544</v>
+        <v>1.06797745039014</v>
       </c>
       <c r="J7">
-        <v>1.069328294375026</v>
+        <v>1.05774833093005</v>
       </c>
       <c r="K7">
-        <v>1.075377678846233</v>
+        <v>1.066186072632641</v>
       </c>
       <c r="L7">
-        <v>1.06978673931472</v>
+        <v>1.060130885735149</v>
       </c>
       <c r="M7">
-        <v>1.081869259858377</v>
+        <v>1.072362574934072</v>
       </c>
       <c r="N7">
-        <v>1.070846863206709</v>
+        <v>1.0592504548854</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042740113099734</v>
+        <v>1.033874171719039</v>
       </c>
       <c r="D8">
-        <v>1.059304267094889</v>
+        <v>1.052469335628277</v>
       </c>
       <c r="E8">
-        <v>1.053236744170296</v>
+        <v>1.046135029957472</v>
       </c>
       <c r="F8">
-        <v>1.065266547011566</v>
+        <v>1.058224474532533</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.069288300383925</v>
+        <v>1.065997899026939</v>
       </c>
       <c r="J8">
-        <v>1.063177202660355</v>
+        <v>1.054543396107557</v>
       </c>
       <c r="K8">
-        <v>1.069736658196643</v>
+        <v>1.062982558465307</v>
       </c>
       <c r="L8">
-        <v>1.063740826626267</v>
+        <v>1.056724334818162</v>
       </c>
       <c r="M8">
-        <v>1.075629473484737</v>
+        <v>1.068669549575808</v>
       </c>
       <c r="N8">
-        <v>1.064687036236263</v>
+        <v>1.056040968687848</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027027914424473</v>
+        <v>1.02390072706619</v>
       </c>
       <c r="D9">
-        <v>1.046784514630752</v>
+        <v>1.044664986405244</v>
       </c>
       <c r="E9">
-        <v>1.039958885142389</v>
+        <v>1.03795940598855</v>
       </c>
       <c r="F9">
-        <v>1.05165553832268</v>
+        <v>1.049545308558907</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.06326723951198</v>
+        <v>1.062290316512727</v>
       </c>
       <c r="J9">
-        <v>1.051661065809194</v>
+        <v>1.048636829018923</v>
       </c>
       <c r="K9">
-        <v>1.0591615565446</v>
+        <v>1.057072708660393</v>
       </c>
       <c r="L9">
-        <v>1.05243529615753</v>
+        <v>1.050465240240732</v>
       </c>
       <c r="M9">
-        <v>1.063962664908256</v>
+        <v>1.061882623053881</v>
       </c>
       <c r="N9">
-        <v>1.053154545149853</v>
+        <v>1.050126013596455</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015864765092737</v>
+        <v>1.016953538207899</v>
       </c>
       <c r="D10">
-        <v>1.037907778667412</v>
+        <v>1.039245213842257</v>
       </c>
       <c r="E10">
-        <v>1.030558291882199</v>
+        <v>1.032295702270338</v>
       </c>
       <c r="F10">
-        <v>1.042018622445161</v>
+        <v>1.043528701925805</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.058925537964102</v>
+        <v>1.05966106594441</v>
       </c>
       <c r="J10">
-        <v>1.043462777994812</v>
+        <v>1.044510294910494</v>
       </c>
       <c r="K10">
-        <v>1.051624742825131</v>
+        <v>1.052940281481834</v>
       </c>
       <c r="L10">
-        <v>1.04439688882242</v>
+        <v>1.046105344042328</v>
       </c>
       <c r="M10">
-        <v>1.055668513839955</v>
+        <v>1.057154125152431</v>
       </c>
       <c r="N10">
-        <v>1.044944614826418</v>
+        <v>1.045993619336273</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.010844158889576</v>
+        <v>1.013868156520353</v>
       </c>
       <c r="D11">
-        <v>1.033921244862234</v>
+        <v>1.036842745947417</v>
       </c>
       <c r="E11">
-        <v>1.026339548842589</v>
+        <v>1.029788325390908</v>
       </c>
       <c r="F11">
-        <v>1.037693761469657</v>
+        <v>1.040864097002218</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056958580952422</v>
+        <v>1.058482802739166</v>
       </c>
       <c r="J11">
-        <v>1.039772664568229</v>
+        <v>1.042675171733508</v>
       </c>
       <c r="K11">
-        <v>1.048230606425038</v>
+        <v>1.051101773753046</v>
       </c>
       <c r="L11">
-        <v>1.040781266453549</v>
+        <v>1.044169523670984</v>
       </c>
       <c r="M11">
-        <v>1.051938196238687</v>
+        <v>1.055054438693245</v>
       </c>
       <c r="N11">
-        <v>1.041249261015508</v>
+        <v>1.044155890073883</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.008948941935697</v>
+        <v>1.012709922356123</v>
       </c>
       <c r="D12">
-        <v>1.032417376897685</v>
+        <v>1.03594161599564</v>
       </c>
       <c r="E12">
-        <v>1.024748524891768</v>
+        <v>1.028848322886186</v>
       </c>
       <c r="F12">
-        <v>1.036062711914133</v>
+        <v>1.039864998605414</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.056214014943679</v>
+        <v>1.058038947474562</v>
       </c>
       <c r="J12">
-        <v>1.038379336619865</v>
+        <v>1.041985948721911</v>
       </c>
       <c r="K12">
-        <v>1.046948793395523</v>
+        <v>1.05041117273797</v>
       </c>
       <c r="L12">
-        <v>1.039416460633158</v>
+        <v>1.043442946318965</v>
       </c>
       <c r="M12">
-        <v>1.050530152787647</v>
+        <v>1.054266327682847</v>
       </c>
       <c r="N12">
-        <v>1.03985395438164</v>
+        <v>1.043465688286554</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.009356884356654</v>
+        <v>1.012958928792281</v>
       </c>
       <c r="D13">
-        <v>1.032741034680774</v>
+        <v>1.036135313616039</v>
       </c>
       <c r="E13">
-        <v>1.025090920444802</v>
+        <v>1.029050354689169</v>
       </c>
       <c r="F13">
-        <v>1.03641372131665</v>
+        <v>1.040079738611125</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056374373385072</v>
+        <v>1.058134439979743</v>
       </c>
       <c r="J13">
-        <v>1.038679262806573</v>
+        <v>1.042134137589616</v>
       </c>
       <c r="K13">
-        <v>1.047224725517463</v>
+        <v>1.050559662586756</v>
       </c>
       <c r="L13">
-        <v>1.039710229053547</v>
+        <v>1.043599145655155</v>
       </c>
       <c r="M13">
-        <v>1.050833225239858</v>
+        <v>1.054435756802349</v>
       </c>
       <c r="N13">
-        <v>1.040154306497935</v>
+        <v>1.043614087599449</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.010688132542871</v>
+        <v>1.013772668638768</v>
       </c>
       <c r="D14">
-        <v>1.03379741576601</v>
+        <v>1.036768438980486</v>
       </c>
       <c r="E14">
-        <v>1.026208534417879</v>
+        <v>1.029710803334389</v>
       </c>
       <c r="F14">
-        <v>1.037559451175204</v>
+        <v>1.040781704409257</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056897324923093</v>
+        <v>1.058446241233129</v>
       </c>
       <c r="J14">
-        <v>1.039657963612986</v>
+        <v>1.0426183568169</v>
       </c>
       <c r="K14">
-        <v>1.04812509031335</v>
+        <v>1.051044847368941</v>
       </c>
       <c r="L14">
-        <v>1.040668905362458</v>
+        <v>1.044109620052081</v>
       </c>
       <c r="M14">
-        <v>1.051822274306822</v>
+        <v>1.054989462438575</v>
       </c>
       <c r="N14">
-        <v>1.041134397171751</v>
+        <v>1.044098994473576</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011504266320654</v>
+        <v>1.014272407667606</v>
       </c>
       <c r="D15">
-        <v>1.034445175475907</v>
+        <v>1.037157357605102</v>
       </c>
       <c r="E15">
-        <v>1.026893899025579</v>
+        <v>1.030116568991881</v>
       </c>
       <c r="F15">
-        <v>1.038262057004053</v>
+        <v>1.041212957196774</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057217656022641</v>
+        <v>1.058637524481381</v>
       </c>
       <c r="J15">
-        <v>1.040257920943886</v>
+        <v>1.042915686427716</v>
       </c>
       <c r="K15">
-        <v>1.04867699552404</v>
+        <v>1.05134275601377</v>
       </c>
       <c r="L15">
-        <v>1.041256639935844</v>
+        <v>1.044423132737745</v>
       </c>
       <c r="M15">
-        <v>1.052428637159678</v>
+        <v>1.055329522178372</v>
       </c>
       <c r="N15">
-        <v>1.041735206510877</v>
+        <v>1.044396746326545</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016193840970653</v>
+        <v>1.017156628958928</v>
       </c>
       <c r="D16">
-        <v>1.038169206761886</v>
+        <v>1.039403452669405</v>
       </c>
       <c r="E16">
-        <v>1.030835009757057</v>
+        <v>1.032460917605487</v>
       </c>
       <c r="F16">
-        <v>1.042302299914398</v>
+        <v>1.043704256305793</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.059054172633554</v>
+        <v>1.059738406849198</v>
       </c>
       <c r="J16">
-        <v>1.04370459266206</v>
+        <v>1.044631041432442</v>
       </c>
       <c r="K16">
-        <v>1.051847127413991</v>
+        <v>1.0530612354364</v>
       </c>
       <c r="L16">
-        <v>1.044633875778754</v>
+        <v>1.046232780581821</v>
       </c>
       <c r="M16">
-        <v>1.055913026032486</v>
+        <v>1.057292344972796</v>
       </c>
       <c r="N16">
-        <v>1.04518677289823</v>
+        <v>1.046114537332131</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019083928337542</v>
+        <v>1.018944752132523</v>
       </c>
       <c r="D17">
-        <v>1.040465849221212</v>
+        <v>1.040797201125268</v>
       </c>
       <c r="E17">
-        <v>1.033266316897909</v>
+        <v>1.033916480969079</v>
       </c>
       <c r="F17">
-        <v>1.044794749057513</v>
+        <v>1.045250793819683</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.060182290177535</v>
+        <v>1.060418160254066</v>
       </c>
       <c r="J17">
-        <v>1.045827990115235</v>
+        <v>1.045693886010713</v>
       </c>
       <c r="K17">
-        <v>1.053799711173424</v>
+        <v>1.054125819821345</v>
       </c>
       <c r="L17">
-        <v>1.046715168442826</v>
+        <v>1.047354863823097</v>
       </c>
       <c r="M17">
-        <v>1.058060446467982</v>
+        <v>1.058509352213245</v>
       </c>
       <c r="N17">
-        <v>1.047313185819346</v>
+        <v>1.047178891271614</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020751800311913</v>
+        <v>1.019980326683701</v>
       </c>
       <c r="D18">
-        <v>1.041791777761764</v>
+        <v>1.041604806612629</v>
       </c>
       <c r="E18">
-        <v>1.034670281367968</v>
+        <v>1.034760211864008</v>
       </c>
       <c r="F18">
-        <v>1.046234013936425</v>
+        <v>1.046147164207251</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060831974921202</v>
+        <v>1.060810826186154</v>
       </c>
       <c r="J18">
-        <v>1.047053120531522</v>
+        <v>1.046309186919722</v>
       </c>
       <c r="K18">
-        <v>1.054926120452323</v>
+        <v>1.05474205486628</v>
       </c>
       <c r="L18">
-        <v>1.04791624295674</v>
+        <v>1.048004751662206</v>
       </c>
       <c r="M18">
-        <v>1.059299713370589</v>
+        <v>1.059214198548076</v>
       </c>
       <c r="N18">
-        <v>1.048540056061348</v>
+        <v>1.047795065978489</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021317535834722</v>
+        <v>1.020332191649317</v>
       </c>
       <c r="D19">
-        <v>1.042241614262732</v>
+        <v>1.041879283956849</v>
       </c>
       <c r="E19">
-        <v>1.03514664204927</v>
+        <v>1.035047019237127</v>
       </c>
       <c r="F19">
-        <v>1.046722350762372</v>
+        <v>1.046451849234456</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.061052113581408</v>
+        <v>1.060944073162935</v>
       </c>
       <c r="J19">
-        <v>1.04746862921962</v>
+        <v>1.04651821125708</v>
       </c>
       <c r="K19">
-        <v>1.055308118387239</v>
+        <v>1.05495138391375</v>
       </c>
       <c r="L19">
-        <v>1.048323632763016</v>
+        <v>1.048225575126103</v>
       </c>
       <c r="M19">
-        <v>1.0597200626994</v>
+        <v>1.059453692837116</v>
       </c>
       <c r="N19">
-        <v>1.048956154819444</v>
+        <v>1.048004387154381</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.018775712977305</v>
+        <v>1.018753673752738</v>
       </c>
       <c r="D20">
-        <v>1.04022086581532</v>
+        <v>1.040648220596289</v>
       </c>
       <c r="E20">
-        <v>1.033006938831816</v>
+        <v>1.033760861149124</v>
       </c>
       <c r="F20">
-        <v>1.044528848820345</v>
+        <v>1.0450854574252</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.060062121254211</v>
+        <v>1.060345626092431</v>
       </c>
       <c r="J20">
-        <v>1.045601567844687</v>
+        <v>1.045580334857054</v>
       </c>
       <c r="K20">
-        <v>1.053591520338301</v>
+        <v>1.054012090316589</v>
       </c>
       <c r="L20">
-        <v>1.046493211151398</v>
+        <v>1.047234953428101</v>
       </c>
       <c r="M20">
-        <v>1.057831433754357</v>
+        <v>1.058379299870714</v>
       </c>
       <c r="N20">
-        <v>1.047086442003202</v>
+        <v>1.047065178862291</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.01029697006129</v>
+        <v>1.013533383830105</v>
       </c>
       <c r="D21">
-        <v>1.033486989261985</v>
+        <v>1.036582243971144</v>
       </c>
       <c r="E21">
-        <v>1.025880102104191</v>
+        <v>1.029516559769033</v>
       </c>
       <c r="F21">
-        <v>1.037222756573493</v>
+        <v>1.040575254500269</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.056743721399273</v>
+        <v>1.058354596399767</v>
       </c>
       <c r="J21">
-        <v>1.039370399649961</v>
+        <v>1.042475978133212</v>
       </c>
       <c r="K21">
-        <v>1.04786054964562</v>
+        <v>1.05090218765249</v>
       </c>
       <c r="L21">
-        <v>1.040387214035394</v>
+        <v>1.043959508548778</v>
       </c>
       <c r="M21">
-        <v>1.051531656824557</v>
+        <v>1.054826639032863</v>
       </c>
       <c r="N21">
-        <v>1.040846424834915</v>
+        <v>1.043956413595827</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.004789203612115</v>
+        <v>1.010180357755942</v>
       </c>
       <c r="D22">
-        <v>1.02911859517605</v>
+        <v>1.033974992800654</v>
       </c>
       <c r="E22">
-        <v>1.021259357989289</v>
+        <v>1.026797733738247</v>
       </c>
       <c r="F22">
-        <v>1.032485763215921</v>
+        <v>1.037685211580843</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054576089833117</v>
+        <v>1.057066791233096</v>
       </c>
       <c r="J22">
-        <v>1.035320623358338</v>
+        <v>1.040480137859157</v>
       </c>
       <c r="K22">
-        <v>1.044134466199923</v>
+        <v>1.048902163757832</v>
       </c>
       <c r="L22">
-        <v>1.036421108412054</v>
+        <v>1.041856380582229</v>
       </c>
       <c r="M22">
-        <v>1.047440018882148</v>
+        <v>1.052545343927498</v>
       </c>
       <c r="N22">
-        <v>1.036790897396443</v>
+        <v>1.041957738999657</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.007726558569149</v>
+        <v>1.011964779278022</v>
       </c>
       <c r="D23">
-        <v>1.031447706550952</v>
+        <v>1.035362095962236</v>
       </c>
       <c r="E23">
-        <v>1.023722780070113</v>
+        <v>1.028243937393885</v>
       </c>
       <c r="F23">
-        <v>1.035011161418018</v>
+        <v>1.039222573607022</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.055733211396273</v>
+        <v>1.057752967029476</v>
       </c>
       <c r="J23">
-        <v>1.037480574672371</v>
+        <v>1.041542453674539</v>
       </c>
       <c r="K23">
-        <v>1.046121898798974</v>
+        <v>1.049966761888276</v>
       </c>
       <c r="L23">
-        <v>1.038536210381337</v>
+        <v>1.042975546059193</v>
       </c>
       <c r="M23">
-        <v>1.049622032713335</v>
+        <v>1.053759335343998</v>
       </c>
       <c r="N23">
-        <v>1.038953916089091</v>
+        <v>1.043021563425346</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018915037278768</v>
+        <v>1.018840036696453</v>
       </c>
       <c r="D24">
-        <v>1.040331605377054</v>
+        <v>1.040715554973005</v>
       </c>
       <c r="E24">
-        <v>1.033124184295144</v>
+        <v>1.033831195319056</v>
       </c>
       <c r="F24">
-        <v>1.044649042489936</v>
+        <v>1.045160183405579</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.060116446085849</v>
+        <v>1.060378412955384</v>
       </c>
       <c r="J24">
-        <v>1.045703919649917</v>
+        <v>1.04563165804658</v>
       </c>
       <c r="K24">
-        <v>1.053685631335907</v>
+        <v>1.054063494344901</v>
       </c>
       <c r="L24">
-        <v>1.046593543874658</v>
+        <v>1.047289149979738</v>
       </c>
       <c r="M24">
-        <v>1.057934955686913</v>
+        <v>1.058438080394119</v>
       </c>
       <c r="N24">
-        <v>1.047188939159736</v>
+        <v>1.047116574936633</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031203883846102</v>
+        <v>1.026529600535655</v>
       </c>
       <c r="D25">
-        <v>1.050109312043201</v>
+        <v>1.046719470674897</v>
       </c>
       <c r="E25">
-        <v>1.043482613268029</v>
+        <v>1.040109198163698</v>
       </c>
       <c r="F25">
-        <v>1.055267771049598</v>
+        <v>1.051828203619829</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.064878701546765</v>
+        <v>1.063275809283382</v>
       </c>
       <c r="J25">
-        <v>1.054724888311543</v>
+        <v>1.050195974966395</v>
       </c>
       <c r="K25">
-        <v>1.061976538978481</v>
+        <v>1.058633370735915</v>
       </c>
       <c r="L25">
-        <v>1.055441437226002</v>
+        <v>1.052115217104693</v>
       </c>
       <c r="M25">
-        <v>1.067064697401198</v>
+        <v>1.063671908685671</v>
       </c>
       <c r="N25">
-        <v>1.056222718631581</v>
+        <v>1.051687373710009</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_1/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032449593353056</v>
+        <v>0.9824983919318472</v>
       </c>
       <c r="D2">
-        <v>1.051352943908689</v>
+        <v>1.004473823379318</v>
       </c>
       <c r="E2">
-        <v>1.044963932769462</v>
+        <v>0.9913558853163592</v>
       </c>
       <c r="F2">
-        <v>1.056981699246115</v>
+        <v>0.9583996194030854</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.065473743267101</v>
+        <v>1.038787124464537</v>
       </c>
       <c r="J2">
-        <v>1.053701242835756</v>
+        <v>1.005215478444011</v>
       </c>
       <c r="K2">
-        <v>1.062140371840584</v>
+        <v>1.015871180631814</v>
       </c>
       <c r="L2">
-        <v>1.055830470683541</v>
+        <v>1.002936974633783</v>
       </c>
       <c r="M2">
-        <v>1.06770041538494</v>
+        <v>0.9704706364341593</v>
       </c>
       <c r="N2">
-        <v>1.055197619461804</v>
+        <v>1.006642999723229</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036633354801785</v>
+        <v>0.9878983401614988</v>
       </c>
       <c r="D3">
-        <v>1.054633109970171</v>
+        <v>1.008521553905245</v>
       </c>
       <c r="E3">
-        <v>1.048406481930766</v>
+        <v>0.9957021634579197</v>
       </c>
       <c r="F3">
-        <v>1.060634501460933</v>
+        <v>0.9666183304517427</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.067007441429754</v>
+        <v>1.040337934031675</v>
       </c>
       <c r="J3">
-        <v>1.05617284131885</v>
+        <v>1.00872443475585</v>
       </c>
       <c r="K3">
-        <v>1.064611601003612</v>
+        <v>1.019046548714747</v>
       </c>
       <c r="L3">
-        <v>1.058455305550614</v>
+        <v>1.006390332887396</v>
       </c>
       <c r="M3">
-        <v>1.070546165075979</v>
+        <v>0.9776969380758049</v>
       </c>
       <c r="N3">
-        <v>1.057672727898241</v>
+        <v>1.010156939155514</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03929020818101</v>
+        <v>0.9913001260195591</v>
       </c>
       <c r="D4">
-        <v>1.056718467956043</v>
+        <v>1.011070299086254</v>
       </c>
       <c r="E4">
-        <v>1.050597771618864</v>
+        <v>0.9984465369651305</v>
       </c>
       <c r="F4">
-        <v>1.062958894660215</v>
+        <v>0.971781921243175</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.067972093054048</v>
+        <v>1.041297388746078</v>
       </c>
       <c r="J4">
-        <v>1.05773960154962</v>
+        <v>1.010929024306509</v>
       </c>
       <c r="K4">
-        <v>1.066177350692179</v>
+        <v>1.021036926489332</v>
       </c>
       <c r="L4">
-        <v>1.060121596376178</v>
+        <v>1.008563747147023</v>
       </c>
       <c r="M4">
-        <v>1.072352505259112</v>
+        <v>0.9822332824180411</v>
       </c>
       <c r="N4">
-        <v>1.059241713108249</v>
+        <v>1.012364659476204</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040395487925513</v>
+        <v>0.9927091547051565</v>
       </c>
       <c r="D5">
-        <v>1.057586517838208</v>
+        <v>1.012125627128829</v>
       </c>
       <c r="E5">
-        <v>1.051510569320646</v>
+        <v>0.9995847354302716</v>
       </c>
       <c r="F5">
-        <v>1.063926964445779</v>
+        <v>0.9739178573984963</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.068371132187659</v>
+        <v>1.041690531309053</v>
       </c>
       <c r="J5">
-        <v>1.058390690274721</v>
+        <v>1.011840726327069</v>
       </c>
       <c r="K5">
-        <v>1.066827827303419</v>
+        <v>1.021858889915438</v>
       </c>
       <c r="L5">
-        <v>1.060814620940269</v>
+        <v>1.009463448819238</v>
       </c>
       <c r="M5">
-        <v>1.07310373074193</v>
+        <v>0.9841088110835673</v>
       </c>
       <c r="N5">
-        <v>1.05989372645402</v>
+        <v>1.013277656218207</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040580396313886</v>
+        <v>0.9929445289638139</v>
       </c>
       <c r="D6">
-        <v>1.057731768082914</v>
+        <v>1.01230189262605</v>
       </c>
       <c r="E6">
-        <v>1.051663345720074</v>
+        <v>0.9997749532531266</v>
       </c>
       <c r="F6">
-        <v>1.064088981696255</v>
+        <v>0.9742745065095961</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.068437755490214</v>
+        <v>1.041755951874099</v>
       </c>
       <c r="J6">
-        <v>1.058499572545187</v>
+        <v>1.011992937991762</v>
       </c>
       <c r="K6">
-        <v>1.066936595742981</v>
+        <v>1.021996050478328</v>
       </c>
       <c r="L6">
-        <v>1.060930549975597</v>
+        <v>1.009613709221017</v>
       </c>
       <c r="M6">
-        <v>1.073229392840041</v>
+        <v>0.9844219216430907</v>
       </c>
       <c r="N6">
-        <v>1.060002763349799</v>
+        <v>1.013430084040922</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039305022305887</v>
+        <v>0.9913190350675298</v>
       </c>
       <c r="D7">
-        <v>1.056730100479683</v>
+        <v>1.011084463068433</v>
       </c>
       <c r="E7">
-        <v>1.050610001212661</v>
+        <v>0.998461805743789</v>
       </c>
       <c r="F7">
-        <v>1.06297186546623</v>
+        <v>0.9718105959164717</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06797745039014</v>
+        <v>1.041302681648267</v>
       </c>
       <c r="J7">
-        <v>1.05774833093005</v>
+        <v>1.01094126501475</v>
       </c>
       <c r="K7">
-        <v>1.066186072632641</v>
+        <v>1.021047966961533</v>
       </c>
       <c r="L7">
-        <v>1.060130885735149</v>
+        <v>1.008575823215881</v>
       </c>
       <c r="M7">
-        <v>1.072362574934072</v>
+        <v>0.9822584649524124</v>
       </c>
       <c r="N7">
-        <v>1.0592504548854</v>
+        <v>1.012376917567655</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033874171719039</v>
+        <v>0.9843430910741796</v>
       </c>
       <c r="D8">
-        <v>1.052469335628277</v>
+        <v>1.005856783656627</v>
       </c>
       <c r="E8">
-        <v>1.046135029957472</v>
+        <v>0.9928392606174412</v>
       </c>
       <c r="F8">
-        <v>1.058224474532533</v>
+        <v>0.9612105031938654</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065997899026939</v>
+        <v>1.039320547937275</v>
       </c>
       <c r="J8">
-        <v>1.054543396107557</v>
+        <v>1.006415425176849</v>
       </c>
       <c r="K8">
-        <v>1.062982558465307</v>
+        <v>1.016958001252022</v>
       </c>
       <c r="L8">
-        <v>1.056724334818162</v>
+        <v>1.004117110366441</v>
       </c>
       <c r="M8">
-        <v>1.068669549575808</v>
+        <v>0.9729428655096567</v>
       </c>
       <c r="N8">
-        <v>1.056040968687848</v>
+        <v>1.007844650518062</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02390072706619</v>
+        <v>0.9712930010042437</v>
       </c>
       <c r="D9">
-        <v>1.044664986405244</v>
+        <v>0.9960717639914579</v>
       </c>
       <c r="E9">
-        <v>1.03795940598855</v>
+        <v>0.9823751221978794</v>
       </c>
       <c r="F9">
-        <v>1.049545308558907</v>
+        <v>0.9412417868004194</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.062290316512727</v>
+        <v>1.035474498238292</v>
       </c>
       <c r="J9">
-        <v>1.048636829018923</v>
+        <v>0.9979018573204205</v>
       </c>
       <c r="K9">
-        <v>1.057072708660393</v>
+        <v>1.00922889723033</v>
       </c>
       <c r="L9">
-        <v>1.050465240240732</v>
+        <v>0.9957607732439163</v>
       </c>
       <c r="M9">
-        <v>1.061882623053881</v>
+        <v>0.9553659916362328</v>
       </c>
       <c r="N9">
-        <v>1.050126013596455</v>
+        <v>0.9993189924187585</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016953538207899</v>
+        <v>0.9620055060381082</v>
       </c>
       <c r="D10">
-        <v>1.039245213842257</v>
+        <v>0.9891104579087696</v>
       </c>
       <c r="E10">
-        <v>1.032295702270338</v>
+        <v>0.9749690902053358</v>
       </c>
       <c r="F10">
-        <v>1.043528701925805</v>
+        <v>0.9268927145751206</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05966106594441</v>
+        <v>1.032647892075467</v>
       </c>
       <c r="J10">
-        <v>1.044510294910494</v>
+        <v>0.9918121102211593</v>
       </c>
       <c r="K10">
-        <v>1.052940281481834</v>
+        <v>1.003679149853383</v>
       </c>
       <c r="L10">
-        <v>1.046105344042328</v>
+        <v>0.9898054867083573</v>
       </c>
       <c r="M10">
-        <v>1.057154125152431</v>
+        <v>0.942720543941054</v>
       </c>
       <c r="N10">
-        <v>1.045993619336273</v>
+        <v>0.9932205971801127</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013868156520353</v>
+        <v>0.9578245307802986</v>
       </c>
       <c r="D11">
-        <v>1.036842745947417</v>
+        <v>0.985978767487906</v>
       </c>
       <c r="E11">
-        <v>1.029788325390908</v>
+        <v>0.9716459052617424</v>
       </c>
       <c r="F11">
-        <v>1.040864097002218</v>
+        <v>0.920388804186052</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.058482802739166</v>
+        <v>1.031355211486408</v>
       </c>
       <c r="J11">
-        <v>1.042675171733508</v>
+        <v>0.9890635639215812</v>
       </c>
       <c r="K11">
-        <v>1.051101773753046</v>
+        <v>1.001170038018913</v>
       </c>
       <c r="L11">
-        <v>1.044169523670984</v>
+        <v>0.9871231078121926</v>
       </c>
       <c r="M11">
-        <v>1.055054438693245</v>
+        <v>0.936986286638251</v>
       </c>
       <c r="N11">
-        <v>1.044155890073883</v>
+        <v>0.9904681476295266</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.012709922356123</v>
+        <v>0.9562456323569103</v>
       </c>
       <c r="D12">
-        <v>1.03594161599564</v>
+        <v>0.9847965729908831</v>
       </c>
       <c r="E12">
-        <v>1.028848322886186</v>
+        <v>0.9703926619495034</v>
       </c>
       <c r="F12">
-        <v>1.039864998605414</v>
+        <v>0.9179248438441653</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.058038947474562</v>
+        <v>1.030864097966336</v>
       </c>
       <c r="J12">
-        <v>1.041985948721911</v>
+        <v>0.988024551649636</v>
       </c>
       <c r="K12">
-        <v>1.05041117273797</v>
+        <v>1.000220960442635</v>
       </c>
       <c r="L12">
-        <v>1.043442946318965</v>
+        <v>0.9861099575719121</v>
       </c>
       <c r="M12">
-        <v>1.054266327682847</v>
+        <v>0.9348136271080452</v>
       </c>
       <c r="N12">
-        <v>1.043465688286554</v>
+        <v>0.9894276598409787</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.012958928792281</v>
+        <v>0.9565855171188996</v>
       </c>
       <c r="D13">
-        <v>1.036135313616039</v>
+        <v>0.9850510376976556</v>
       </c>
       <c r="E13">
-        <v>1.029050354689169</v>
+        <v>0.970662364621839</v>
       </c>
       <c r="F13">
-        <v>1.040079738611125</v>
+        <v>0.9184556274080855</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.058134439979743</v>
+        <v>1.030969950067738</v>
       </c>
       <c r="J13">
-        <v>1.042134137589616</v>
+        <v>0.9882482641621964</v>
       </c>
       <c r="K13">
-        <v>1.050559662586756</v>
+        <v>1.000425333774169</v>
       </c>
       <c r="L13">
-        <v>1.043599145655155</v>
+        <v>0.9863280628681097</v>
       </c>
       <c r="M13">
-        <v>1.054435756802349</v>
+        <v>0.9352816696387597</v>
       </c>
       <c r="N13">
-        <v>1.043614087599449</v>
+        <v>0.9896516900509669</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013772668638768</v>
+        <v>0.9576945589213365</v>
       </c>
       <c r="D14">
-        <v>1.036768438980486</v>
+        <v>0.9858814415008236</v>
       </c>
       <c r="E14">
-        <v>1.029710803334389</v>
+        <v>0.9715427052130092</v>
       </c>
       <c r="F14">
-        <v>1.040781704409257</v>
+        <v>0.9201861419989568</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.058446241233129</v>
+        <v>1.031314843243381</v>
       </c>
       <c r="J14">
-        <v>1.0426183568169</v>
+        <v>0.9889780557805952</v>
       </c>
       <c r="K14">
-        <v>1.051044847368941</v>
+        <v>1.001091942576438</v>
       </c>
       <c r="L14">
-        <v>1.044109620052081</v>
+        <v>0.9870397106611918</v>
       </c>
       <c r="M14">
-        <v>1.054989462438575</v>
+        <v>0.9368075890736776</v>
       </c>
       <c r="N14">
-        <v>1.044098994473576</v>
+        <v>0.9903825180571724</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014272407667606</v>
+        <v>0.9583743823617726</v>
       </c>
       <c r="D15">
-        <v>1.037157357605102</v>
+        <v>0.9863905285774569</v>
       </c>
       <c r="E15">
-        <v>1.030116568991881</v>
+        <v>0.9720825681079782</v>
       </c>
       <c r="F15">
-        <v>1.041212957196774</v>
+        <v>0.9212458493830533</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.058637524481381</v>
+        <v>1.031525871747737</v>
       </c>
       <c r="J15">
-        <v>1.042915686427716</v>
+        <v>0.9894252669881465</v>
       </c>
       <c r="K15">
-        <v>1.05134275601377</v>
+        <v>1.001500362012317</v>
       </c>
       <c r="L15">
-        <v>1.044423132737745</v>
+        <v>0.9874759159991546</v>
       </c>
       <c r="M15">
-        <v>1.055329522178372</v>
+        <v>0.9377419764191186</v>
       </c>
       <c r="N15">
-        <v>1.044396746326545</v>
+        <v>0.990830364355934</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017156628958928</v>
+        <v>0.9622794636222434</v>
       </c>
       <c r="D16">
-        <v>1.039403452669405</v>
+        <v>0.9893157162196472</v>
       </c>
       <c r="E16">
-        <v>1.032460917605487</v>
+        <v>0.9751870733617579</v>
       </c>
       <c r="F16">
-        <v>1.043704256305793</v>
+        <v>0.9273178676761491</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.059738406849198</v>
+        <v>1.032732182871168</v>
       </c>
       <c r="J16">
-        <v>1.044631041432442</v>
+        <v>0.9919920619439678</v>
       </c>
       <c r="K16">
-        <v>1.0530612354364</v>
+        <v>1.003843342092469</v>
       </c>
       <c r="L16">
-        <v>1.046232780581821</v>
+        <v>0.9899812219897213</v>
       </c>
       <c r="M16">
-        <v>1.057292344972796</v>
+        <v>0.943095341675</v>
       </c>
       <c r="N16">
-        <v>1.046114537332131</v>
+        <v>0.9934008044550079</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018944752132523</v>
+        <v>0.9646850297271935</v>
       </c>
       <c r="D17">
-        <v>1.040797201125268</v>
+        <v>0.9911183010942225</v>
       </c>
       <c r="E17">
-        <v>1.033916480969079</v>
+        <v>0.9771023733053843</v>
       </c>
       <c r="F17">
-        <v>1.045250793819683</v>
+        <v>0.9310459099011887</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.060418160254066</v>
+        <v>1.033470045771223</v>
       </c>
       <c r="J17">
-        <v>1.045693886010713</v>
+        <v>0.9935713792211857</v>
       </c>
       <c r="K17">
-        <v>1.054125819821345</v>
+        <v>1.005283871669814</v>
       </c>
       <c r="L17">
-        <v>1.047354863823097</v>
+        <v>0.9915241563687031</v>
       </c>
       <c r="M17">
-        <v>1.058509352213245</v>
+        <v>0.9463815574538033</v>
       </c>
       <c r="N17">
-        <v>1.047178891271614</v>
+        <v>0.9949823645439099</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019980326683701</v>
+        <v>0.9660729159280599</v>
       </c>
       <c r="D18">
-        <v>1.041604806612629</v>
+        <v>0.9921584869049607</v>
       </c>
       <c r="E18">
-        <v>1.034760211864008</v>
+        <v>0.9782084135574105</v>
       </c>
       <c r="F18">
-        <v>1.046147164207251</v>
+        <v>0.9331926995465198</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060810826186154</v>
+        <v>1.033893842166507</v>
       </c>
       <c r="J18">
-        <v>1.046309186919722</v>
+        <v>0.9944818921126972</v>
       </c>
       <c r="K18">
-        <v>1.05474205486628</v>
+        <v>1.006113961932078</v>
       </c>
       <c r="L18">
-        <v>1.048004751662206</v>
+        <v>0.9924142075652413</v>
       </c>
       <c r="M18">
-        <v>1.059214198548076</v>
+        <v>0.9482736761167777</v>
       </c>
       <c r="N18">
-        <v>1.047795065978489</v>
+        <v>0.9958941704681646</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020332191649317</v>
+        <v>0.9665436197997971</v>
       </c>
       <c r="D19">
-        <v>1.041879283956849</v>
+        <v>0.9925112956358452</v>
       </c>
       <c r="E19">
-        <v>1.035047019237127</v>
+        <v>0.9785836978378107</v>
       </c>
       <c r="F19">
-        <v>1.046451849234456</v>
+        <v>0.9339201238750308</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060944073162935</v>
+        <v>1.03403724645792</v>
       </c>
       <c r="J19">
-        <v>1.04651821125708</v>
+        <v>0.9947905798017204</v>
       </c>
       <c r="K19">
-        <v>1.05495138391375</v>
+        <v>1.006395313078345</v>
       </c>
       <c r="L19">
-        <v>1.048225575126103</v>
+        <v>0.9927160446636601</v>
       </c>
       <c r="M19">
-        <v>1.059453692837116</v>
+        <v>0.9489147624783062</v>
       </c>
       <c r="N19">
-        <v>1.048004387154381</v>
+        <v>0.9962032965291132</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.018753673752738</v>
+        <v>0.964428524920053</v>
       </c>
       <c r="D20">
-        <v>1.040648220596289</v>
+        <v>0.9909260714895061</v>
       </c>
       <c r="E20">
-        <v>1.033760861149124</v>
+        <v>0.9768980396497808</v>
       </c>
       <c r="F20">
-        <v>1.0450854574252</v>
+        <v>0.9306488230842026</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.060345626092431</v>
+        <v>1.033391565641014</v>
       </c>
       <c r="J20">
-        <v>1.045580334857054</v>
+        <v>0.9934030466555703</v>
       </c>
       <c r="K20">
-        <v>1.054012090316589</v>
+        <v>1.005130373846602</v>
       </c>
       <c r="L20">
-        <v>1.047234953428101</v>
+        <v>0.9913596481331058</v>
       </c>
       <c r="M20">
-        <v>1.058379299870714</v>
+        <v>0.9460315559570108</v>
       </c>
       <c r="N20">
-        <v>1.047065178862291</v>
+        <v>0.9948137929267438</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.013533383830105</v>
+        <v>0.9573687054397766</v>
       </c>
       <c r="D21">
-        <v>1.036582243971144</v>
+        <v>0.9856374425234932</v>
       </c>
       <c r="E21">
-        <v>1.029516559769033</v>
+        <v>0.9712839995662834</v>
       </c>
       <c r="F21">
-        <v>1.040575254500269</v>
+        <v>0.9196779157369948</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.058354596399767</v>
+        <v>1.031213588599182</v>
       </c>
       <c r="J21">
-        <v>1.042475978133212</v>
+        <v>0.9887636607122531</v>
       </c>
       <c r="K21">
-        <v>1.05090218765249</v>
+        <v>1.000896124370826</v>
       </c>
       <c r="L21">
-        <v>1.043959508548778</v>
+        <v>0.9868306222459163</v>
       </c>
       <c r="M21">
-        <v>1.054826639032863</v>
+        <v>0.9363594560442676</v>
       </c>
       <c r="N21">
-        <v>1.043956413595827</v>
+        <v>0.9901678185232413</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.010180357755942</v>
+        <v>0.9527789402758569</v>
       </c>
       <c r="D22">
-        <v>1.033974992800654</v>
+        <v>0.9822018964882427</v>
       </c>
       <c r="E22">
-        <v>1.026797733738247</v>
+        <v>0.967644274084788</v>
       </c>
       <c r="F22">
-        <v>1.037685211580843</v>
+        <v>0.9124989904434531</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.057066791233096</v>
+        <v>1.029780462361482</v>
       </c>
       <c r="J22">
-        <v>1.040480137859157</v>
+        <v>0.9857413228958196</v>
       </c>
       <c r="K22">
-        <v>1.048902163757832</v>
+        <v>0.9981343793220357</v>
       </c>
       <c r="L22">
-        <v>1.041856380582229</v>
+        <v>0.9838851585772848</v>
       </c>
       <c r="M22">
-        <v>1.052545343927498</v>
+        <v>0.9300288614906741</v>
       </c>
       <c r="N22">
-        <v>1.041957738999657</v>
+        <v>0.9871411886404415</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011964779278022</v>
+        <v>0.9552270841090524</v>
       </c>
       <c r="D23">
-        <v>1.035362095962236</v>
+        <v>0.9840340845383074</v>
       </c>
       <c r="E23">
-        <v>1.028243937393885</v>
+        <v>0.9695846915211068</v>
       </c>
       <c r="F23">
-        <v>1.039222573607022</v>
+        <v>0.9163329726623444</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.057752967029476</v>
+        <v>1.030546461366195</v>
       </c>
       <c r="J23">
-        <v>1.041542453674539</v>
+        <v>0.9873539883504252</v>
       </c>
       <c r="K23">
-        <v>1.049966761888276</v>
+        <v>0.9996082859994379</v>
       </c>
       <c r="L23">
-        <v>1.042975546059193</v>
+        <v>0.9854563282257407</v>
       </c>
       <c r="M23">
-        <v>1.053759335343998</v>
+        <v>0.9334098906491596</v>
       </c>
       <c r="N23">
-        <v>1.043021563425346</v>
+        <v>0.9887561442649683</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018840036696453</v>
+        <v>0.964544475353088</v>
       </c>
       <c r="D24">
-        <v>1.040715554973005</v>
+        <v>0.991012966385627</v>
       </c>
       <c r="E24">
-        <v>1.033831195319056</v>
+        <v>0.9769904035007293</v>
       </c>
       <c r="F24">
-        <v>1.045160183405579</v>
+        <v>0.9308283348408665</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.060378412955384</v>
+        <v>1.033427047741738</v>
       </c>
       <c r="J24">
-        <v>1.04563165804658</v>
+        <v>0.9934791417922131</v>
       </c>
       <c r="K24">
-        <v>1.054063494344901</v>
+        <v>1.00519976417566</v>
       </c>
       <c r="L24">
-        <v>1.047289149979738</v>
+        <v>0.9914340128783027</v>
       </c>
       <c r="M24">
-        <v>1.058438080394119</v>
+        <v>0.9461897825384509</v>
       </c>
       <c r="N24">
-        <v>1.047116574936633</v>
+        <v>0.9948899961272083</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026529600535655</v>
+        <v>0.9747640973209754</v>
       </c>
       <c r="D25">
-        <v>1.046719470674897</v>
+        <v>0.9986744437272284</v>
       </c>
       <c r="E25">
-        <v>1.040109198163698</v>
+        <v>0.9851517023675403</v>
       </c>
       <c r="F25">
-        <v>1.051828203619829</v>
+        <v>0.9465732534374325</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.063275809283382</v>
+        <v>1.036513081525859</v>
       </c>
       <c r="J25">
-        <v>1.050195974966395</v>
+        <v>1.00017165461753</v>
       </c>
       <c r="K25">
-        <v>1.058633370735915</v>
+        <v>1.011293372160497</v>
       </c>
       <c r="L25">
-        <v>1.052115217104693</v>
+        <v>0.9979849769509166</v>
       </c>
       <c r="M25">
-        <v>1.063671908685671</v>
+        <v>0.9600617299521296</v>
       </c>
       <c r="N25">
-        <v>1.051687373710009</v>
+        <v>1.001592013088379</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_1/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9824983919318472</v>
+        <v>0.9896155327043923</v>
       </c>
       <c r="D2">
-        <v>1.004473823379318</v>
+        <v>1.014154412964527</v>
       </c>
       <c r="E2">
-        <v>0.9913558853163592</v>
+        <v>0.9974863428900678</v>
       </c>
       <c r="F2">
-        <v>0.9583996194030854</v>
+        <v>0.9659105684936335</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038787124464537</v>
+        <v>1.043699472619739</v>
       </c>
       <c r="J2">
-        <v>1.005215478444011</v>
+        <v>1.012111340661285</v>
       </c>
       <c r="K2">
-        <v>1.015871180631814</v>
+        <v>1.025420014377046</v>
       </c>
       <c r="L2">
-        <v>1.002936974633783</v>
+        <v>1.008980808388511</v>
       </c>
       <c r="M2">
-        <v>0.9704706364341593</v>
+        <v>0.9778661786575108</v>
       </c>
       <c r="N2">
-        <v>1.006642999723229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013548654855817</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.029044235207511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9878983401614988</v>
+        <v>0.9944781521091406</v>
       </c>
       <c r="D3">
-        <v>1.008521553905245</v>
+        <v>1.0175103952934</v>
       </c>
       <c r="E3">
-        <v>0.9957021634579197</v>
+        <v>1.00137755819362</v>
       </c>
       <c r="F3">
-        <v>0.9666183304517427</v>
+        <v>0.9735243778878331</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040337934031675</v>
+        <v>1.04490440117072</v>
       </c>
       <c r="J3">
-        <v>1.00872443475585</v>
+        <v>1.015120488588294</v>
       </c>
       <c r="K3">
-        <v>1.019046548714747</v>
+        <v>1.027924024397754</v>
       </c>
       <c r="L3">
-        <v>1.006390332887396</v>
+        <v>1.011992843198206</v>
       </c>
       <c r="M3">
-        <v>0.9776969380758049</v>
+        <v>0.984507615273971</v>
       </c>
       <c r="N3">
-        <v>1.010156939155514</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016562076118037</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.030812139078499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9913001260195591</v>
+        <v>0.9975503102074957</v>
       </c>
       <c r="D4">
-        <v>1.011070299086254</v>
+        <v>1.019631385769158</v>
       </c>
       <c r="E4">
-        <v>0.9984465369651305</v>
+        <v>1.003842197877332</v>
       </c>
       <c r="F4">
-        <v>0.971781921243175</v>
+        <v>0.9783204415100898</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041297388746078</v>
+        <v>1.045649746176019</v>
       </c>
       <c r="J4">
-        <v>1.010929024306509</v>
+        <v>1.017016887559552</v>
       </c>
       <c r="K4">
-        <v>1.021036926489332</v>
+        <v>1.029498513081326</v>
       </c>
       <c r="L4">
-        <v>1.008563747147023</v>
+        <v>1.013894471094021</v>
       </c>
       <c r="M4">
-        <v>0.9822332824180411</v>
+        <v>0.9886877590158927</v>
       </c>
       <c r="N4">
-        <v>1.012364659476204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.018461168193354</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.03192637256014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9927091547051565</v>
+        <v>0.9988282288246692</v>
       </c>
       <c r="D5">
-        <v>1.012125627128829</v>
+        <v>1.02051557305024</v>
       </c>
       <c r="E5">
-        <v>0.9995847354302716</v>
+        <v>1.004869308345336</v>
       </c>
       <c r="F5">
-        <v>0.9739178573984963</v>
+        <v>0.9803107089515618</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041690531309053</v>
+        <v>1.045957207005899</v>
       </c>
       <c r="J5">
-        <v>1.011840726327069</v>
+        <v>1.017805794437848</v>
       </c>
       <c r="K5">
-        <v>1.021858889915438</v>
+        <v>1.030153986168872</v>
       </c>
       <c r="L5">
-        <v>1.009463448819238</v>
+        <v>1.014686183544645</v>
       </c>
       <c r="M5">
-        <v>0.9841088110835673</v>
+        <v>0.9904219897708135</v>
       </c>
       <c r="N5">
-        <v>1.013277656218207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.019251195409906</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.03239710334036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9929445289638139</v>
+        <v>0.9990459640343597</v>
       </c>
       <c r="D6">
-        <v>1.01230189262605</v>
+        <v>1.02066843709962</v>
       </c>
       <c r="E6">
-        <v>0.9997749532531266</v>
+        <v>1.005044944728846</v>
       </c>
       <c r="F6">
-        <v>0.9742745065095961</v>
+        <v>0.9806475238316841</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041755951874099</v>
+        <v>1.046010949323609</v>
       </c>
       <c r="J6">
-        <v>1.011992937991762</v>
+        <v>1.01794162674097</v>
       </c>
       <c r="K6">
-        <v>1.021996050478328</v>
+        <v>1.030268453490796</v>
       </c>
       <c r="L6">
-        <v>1.009613709221017</v>
+        <v>1.014822326623967</v>
       </c>
       <c r="M6">
-        <v>0.9844219216430907</v>
+        <v>0.9907159279047018</v>
       </c>
       <c r="N6">
-        <v>1.013430084040922</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.019387220610479</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.032486877103915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9913190350675298</v>
+        <v>0.9975785561420535</v>
       </c>
       <c r="D7">
-        <v>1.011084463068433</v>
+        <v>1.019656793844728</v>
       </c>
       <c r="E7">
-        <v>0.998461805743789</v>
+        <v>1.00386638692504</v>
       </c>
       <c r="F7">
-        <v>0.9718105959164717</v>
+        <v>0.9783587618064904</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041302681648267</v>
+        <v>1.045660774349527</v>
       </c>
       <c r="J7">
-        <v>1.01094126501475</v>
+        <v>1.017038292723976</v>
       </c>
       <c r="K7">
-        <v>1.021047966961533</v>
+        <v>1.02952070510765</v>
       </c>
       <c r="L7">
-        <v>1.008575823215881</v>
+        <v>1.013915385114233</v>
       </c>
       <c r="M7">
-        <v>0.9822584649524124</v>
+        <v>0.9887224989147932</v>
       </c>
       <c r="N7">
-        <v>1.012376917567655</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.018482603755567</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.031962389820064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9843430910741796</v>
+        <v>0.9912884069014113</v>
       </c>
       <c r="D8">
-        <v>1.005856783656627</v>
+        <v>1.015315797523352</v>
       </c>
       <c r="E8">
-        <v>0.9928392606174412</v>
+        <v>0.998825652165529</v>
       </c>
       <c r="F8">
-        <v>0.9612105031938654</v>
+        <v>0.9685261955300519</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039320547937275</v>
+        <v>1.04412228320693</v>
       </c>
       <c r="J8">
-        <v>1.006415425176849</v>
+        <v>1.013152367759421</v>
       </c>
       <c r="K8">
-        <v>1.016958001252022</v>
+        <v>1.026292227378039</v>
       </c>
       <c r="L8">
-        <v>1.004117110366441</v>
+        <v>1.010021554271584</v>
       </c>
       <c r="M8">
-        <v>0.9729428655096567</v>
+        <v>0.9801500795738065</v>
       </c>
       <c r="N8">
-        <v>1.007844650518062</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01459116033184</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.029684171182038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9712930010042437</v>
+        <v>0.9795811807920605</v>
       </c>
       <c r="D9">
-        <v>0.9960717639914579</v>
+        <v>1.007236412493996</v>
       </c>
       <c r="E9">
-        <v>0.9823751221978794</v>
+        <v>0.9894933272679185</v>
       </c>
       <c r="F9">
-        <v>0.9412417868004194</v>
+        <v>0.950097191060147</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035474498238292</v>
+        <v>1.04112744870645</v>
       </c>
       <c r="J9">
-        <v>0.9979018573204205</v>
+        <v>1.005876173061912</v>
       </c>
       <c r="K9">
-        <v>1.00922889723033</v>
+        <v>1.020213164936077</v>
       </c>
       <c r="L9">
-        <v>0.9957607732439163</v>
+        <v>1.002759199470026</v>
       </c>
       <c r="M9">
-        <v>0.9553659916362328</v>
+        <v>0.9640553526976928</v>
       </c>
       <c r="N9">
-        <v>0.9993189924187585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.00730463260327</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.025382517694799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9620055060381082</v>
+        <v>0.9713163289805387</v>
       </c>
       <c r="D10">
-        <v>0.9891104579087696</v>
+        <v>1.00154575087333</v>
       </c>
       <c r="E10">
-        <v>0.9749690902053358</v>
+        <v>0.9829445086222445</v>
       </c>
       <c r="F10">
-        <v>0.9268927145751206</v>
+        <v>0.9369543470570958</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032647892075467</v>
+        <v>1.038933427151813</v>
       </c>
       <c r="J10">
-        <v>0.9918121102211593</v>
+        <v>1.000716091823306</v>
       </c>
       <c r="K10">
-        <v>1.003679149853383</v>
+        <v>1.015887152284123</v>
       </c>
       <c r="L10">
-        <v>0.9898054867083573</v>
+        <v>0.9976286880642889</v>
       </c>
       <c r="M10">
-        <v>0.942720543941054</v>
+        <v>0.9525635226095315</v>
       </c>
       <c r="N10">
-        <v>0.9932205971801127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.002137223457435</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.022340735941391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9578245307802986</v>
+        <v>0.9676267603420433</v>
       </c>
       <c r="D11">
-        <v>0.985978767487906</v>
+        <v>0.9990152469633783</v>
       </c>
       <c r="E11">
-        <v>0.9716459052617424</v>
+        <v>0.9800333183402233</v>
       </c>
       <c r="F11">
-        <v>0.920388804186052</v>
+        <v>0.9310396204045416</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031355211486408</v>
+        <v>1.03793973237738</v>
       </c>
       <c r="J11">
-        <v>0.9890635639215812</v>
+        <v>0.9984111969666648</v>
       </c>
       <c r="K11">
-        <v>1.001170038018913</v>
+        <v>1.013955758209197</v>
       </c>
       <c r="L11">
-        <v>0.9871231078121926</v>
+        <v>0.9953418627266486</v>
       </c>
       <c r="M11">
-        <v>0.936986286638251</v>
+        <v>0.9473907609502161</v>
       </c>
       <c r="N11">
-        <v>0.9904681476295266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9998290553857222</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.021008555137744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9562456323569103</v>
+        <v>0.9662289241093062</v>
       </c>
       <c r="D12">
-        <v>0.9847965729908831</v>
+        <v>0.9980537544718822</v>
       </c>
       <c r="E12">
-        <v>0.9703926619495034</v>
+        <v>0.9789307089430557</v>
       </c>
       <c r="F12">
-        <v>0.9179248438441653</v>
+        <v>0.9287955385474932</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030864097966336</v>
+        <v>1.037558241598148</v>
       </c>
       <c r="J12">
-        <v>0.988024551649636</v>
+        <v>0.9975346427782725</v>
       </c>
       <c r="K12">
-        <v>1.000220960442635</v>
+        <v>1.01321833670469</v>
       </c>
       <c r="L12">
-        <v>0.9861099575719121</v>
+        <v>0.9944730101575318</v>
       </c>
       <c r="M12">
-        <v>0.9348136271080452</v>
+        <v>0.9454270513087353</v>
       </c>
       <c r="N12">
-        <v>0.9894276598409787</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9989512563898407</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.020487155146821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9565855171188996</v>
+        <v>0.9665282436266227</v>
       </c>
       <c r="D13">
-        <v>0.9850510376976556</v>
+        <v>0.998258944001282</v>
       </c>
       <c r="E13">
-        <v>0.970662364621839</v>
+        <v>0.9791664891448321</v>
       </c>
       <c r="F13">
-        <v>0.9184556274080855</v>
+        <v>0.9292771557346845</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030969950067738</v>
+        <v>1.037639607759756</v>
       </c>
       <c r="J13">
-        <v>0.9882482641621964</v>
+        <v>0.9977219043778138</v>
       </c>
       <c r="K13">
-        <v>1.000425333774169</v>
+        <v>1.013375429771227</v>
       </c>
       <c r="L13">
-        <v>0.9863280628681097</v>
+        <v>0.9946585974028213</v>
       </c>
       <c r="M13">
-        <v>0.9352816696387597</v>
+        <v>0.9458483474582863</v>
       </c>
       <c r="N13">
-        <v>0.9896516900509669</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9991387839223327</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.020595687279598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9576945589213365</v>
+        <v>0.9675110120515972</v>
       </c>
       <c r="D14">
-        <v>0.9858814415008236</v>
+        <v>0.9989353311667213</v>
       </c>
       <c r="E14">
-        <v>0.9715427052130092</v>
+        <v>0.9799418775496044</v>
       </c>
       <c r="F14">
-        <v>0.9201861419989568</v>
+        <v>0.9308542712922403</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031314843243381</v>
+        <v>1.037908007084615</v>
       </c>
       <c r="J14">
-        <v>0.9889780557805952</v>
+        <v>0.9983384280415806</v>
       </c>
       <c r="K14">
-        <v>1.001091942576438</v>
+        <v>1.01389434881164</v>
       </c>
       <c r="L14">
-        <v>0.9870397106611918</v>
+        <v>0.9952697205850211</v>
       </c>
       <c r="M14">
-        <v>0.9368075890736776</v>
+        <v>0.9472285058965465</v>
       </c>
       <c r="N14">
-        <v>0.9903825180571724</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.999756183120418</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.020964046472046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,81 +1044,93 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9583743823617726</v>
+        <v>0.9681167110598504</v>
       </c>
       <c r="D15">
-        <v>0.9863905285774569</v>
+        <v>0.9993536246627626</v>
       </c>
       <c r="E15">
-        <v>0.9720825681079782</v>
+        <v>0.9804204678546767</v>
       </c>
       <c r="F15">
-        <v>0.9212458493830533</v>
+        <v>0.9318238082732661</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031525871747737</v>
+        <v>1.038073961955368</v>
       </c>
       <c r="J15">
-        <v>0.9894252669881465</v>
+        <v>0.9987192361467064</v>
       </c>
       <c r="K15">
-        <v>1.001500362012317</v>
+        <v>1.014215745518158</v>
       </c>
       <c r="L15">
-        <v>0.9874759159991546</v>
+        <v>0.9956472775456193</v>
       </c>
       <c r="M15">
-        <v>0.9377419764191186</v>
+        <v>0.9480772464904257</v>
       </c>
       <c r="N15">
-        <v>0.990830364355934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.000137532016733</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.021197277664589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>0.9622794636222434</v>
+        <v>0.971583409272496</v>
       </c>
       <c r="D16">
-        <v>0.9893157162196472</v>
+        <v>1.001740724972468</v>
       </c>
       <c r="E16">
-        <v>0.9751870733617579</v>
+        <v>0.9831596674931233</v>
       </c>
       <c r="F16">
-        <v>0.9273178676761491</v>
+        <v>0.9373685124188188</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032732182871168</v>
+        <v>1.039012832909552</v>
       </c>
       <c r="J16">
-        <v>0.9919920619439678</v>
+        <v>1.000891104476972</v>
       </c>
       <c r="K16">
-        <v>1.003843342092469</v>
+        <v>1.016042035498136</v>
       </c>
       <c r="L16">
-        <v>0.9899812219897213</v>
+        <v>0.9978021910065161</v>
       </c>
       <c r="M16">
-        <v>0.943095341675</v>
+        <v>0.9529284874467809</v>
       </c>
       <c r="N16">
-        <v>0.9934008044550079</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.002312484649143</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.022491793485548</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9646850297271935</v>
+        <v>0.9737236806051224</v>
       </c>
       <c r="D17">
-        <v>0.9911183010942225</v>
+        <v>1.003215569697797</v>
       </c>
       <c r="E17">
-        <v>0.9771023733053843</v>
+        <v>0.9848534677145798</v>
       </c>
       <c r="F17">
-        <v>0.9310459099011887</v>
+        <v>0.9407803572736251</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033470045771223</v>
+        <v>1.03958769297312</v>
       </c>
       <c r="J17">
-        <v>0.9935713792211857</v>
+        <v>1.002230461686534</v>
       </c>
       <c r="K17">
-        <v>1.005283871669814</v>
+        <v>1.017167452261507</v>
       </c>
       <c r="L17">
-        <v>0.9915241563687031</v>
+        <v>0.9991323868691452</v>
       </c>
       <c r="M17">
-        <v>0.9463815574538033</v>
+        <v>0.9559130094298142</v>
       </c>
       <c r="N17">
-        <v>0.9949823645439099</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.00365374389957</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.023290157664976</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9660729159280599</v>
+        <v>0.9749524656272582</v>
       </c>
       <c r="D18">
-        <v>0.9921584869049607</v>
+        <v>1.00405903266319</v>
       </c>
       <c r="E18">
-        <v>0.9782084135574105</v>
+        <v>0.9858255961249018</v>
       </c>
       <c r="F18">
-        <v>0.9331926995465198</v>
+        <v>0.9427393869584132</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033893842166507</v>
+        <v>1.039913533611747</v>
       </c>
       <c r="J18">
-        <v>0.9944818921126972</v>
+        <v>1.002996316814553</v>
       </c>
       <c r="K18">
-        <v>1.006113961932078</v>
+        <v>1.017808067822692</v>
       </c>
       <c r="L18">
-        <v>0.9924142075652413</v>
+        <v>0.9998935675570552</v>
       </c>
       <c r="M18">
-        <v>0.9482736761167777</v>
+        <v>0.9576255663171495</v>
       </c>
       <c r="N18">
-        <v>0.9958941704681646</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.004420686629715</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.02373126629869</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9665436197997971</v>
+        <v>0.9753753925756607</v>
       </c>
       <c r="D19">
-        <v>0.9925112956358452</v>
+        <v>1.004352219002431</v>
       </c>
       <c r="E19">
-        <v>0.9785836978378107</v>
+        <v>0.9861613206109685</v>
       </c>
       <c r="F19">
-        <v>0.9339201238750308</v>
+        <v>0.943409961172114</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03403724645792</v>
+        <v>1.040027298252691</v>
       </c>
       <c r="J19">
-        <v>0.9947905798017204</v>
+        <v>1.003261805454366</v>
       </c>
       <c r="K19">
-        <v>1.006395313078345</v>
+        <v>1.018032105424211</v>
       </c>
       <c r="L19">
-        <v>0.9927160446636601</v>
+        <v>1.000157429062723</v>
       </c>
       <c r="M19">
-        <v>0.9489147624783062</v>
+        <v>0.9582124000629393</v>
       </c>
       <c r="N19">
-        <v>0.9962032965291132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.004686552293849</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.023896175581135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.964428524920053</v>
+        <v>0.9734946984495112</v>
       </c>
       <c r="D20">
-        <v>0.9909260714895061</v>
+        <v>1.003057460999624</v>
       </c>
       <c r="E20">
-        <v>0.9768980396497808</v>
+        <v>0.9846720558201063</v>
       </c>
       <c r="F20">
-        <v>0.9306488230842026</v>
+        <v>0.9404160403732978</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033391565641014</v>
+        <v>1.039526181154125</v>
       </c>
       <c r="J20">
-        <v>0.9934030466555703</v>
+        <v>1.002087026108597</v>
       </c>
       <c r="K20">
-        <v>1.005130373846602</v>
+        <v>1.017046760852208</v>
       </c>
       <c r="L20">
-        <v>0.9913596481331058</v>
+        <v>0.9989898918290852</v>
       </c>
       <c r="M20">
-        <v>0.9460315559570108</v>
+        <v>0.9555942800225988</v>
       </c>
       <c r="N20">
-        <v>0.9948137929267438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.003510104626659</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.023203463513529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9573687054397766</v>
+        <v>0.9672303224397347</v>
       </c>
       <c r="D21">
-        <v>0.9856374425234932</v>
+        <v>0.9987458525071352</v>
       </c>
       <c r="E21">
-        <v>0.9712839995662834</v>
+        <v>0.9797217713260746</v>
       </c>
       <c r="F21">
-        <v>0.9196779157369948</v>
+        <v>0.9303998053811989</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031213588599182</v>
+        <v>1.0378339120312</v>
       </c>
       <c r="J21">
-        <v>0.9887636607122531</v>
+        <v>0.9981650262934397</v>
       </c>
       <c r="K21">
-        <v>1.000896124370826</v>
+        <v>1.013751024115763</v>
       </c>
       <c r="L21">
-        <v>0.9868306222459163</v>
+        <v>0.9950977816757851</v>
       </c>
       <c r="M21">
-        <v>0.9363594560442676</v>
+        <v>0.9468317048105316</v>
       </c>
       <c r="N21">
-        <v>0.9901678185232413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9995825351219053</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.020876482696975</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9527789402758569</v>
+        <v>0.9631644719361623</v>
       </c>
       <c r="D22">
-        <v>0.9822018964882427</v>
+        <v>0.9959468436570461</v>
       </c>
       <c r="E22">
-        <v>0.967644274084788</v>
+        <v>0.9765162972914792</v>
       </c>
       <c r="F22">
-        <v>0.9124989904434531</v>
+        <v>0.9238621423193688</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029780462361482</v>
+        <v>1.03671674204872</v>
       </c>
       <c r="J22">
-        <v>0.9857413228958196</v>
+        <v>0.9956110888968875</v>
       </c>
       <c r="K22">
-        <v>0.9981343793220357</v>
+        <v>1.011599024260748</v>
       </c>
       <c r="L22">
-        <v>0.9838851585772848</v>
+        <v>0.9925677808062098</v>
       </c>
       <c r="M22">
-        <v>0.9300288614906741</v>
+        <v>0.9411094627285171</v>
       </c>
       <c r="N22">
-        <v>0.9871411886404415</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9970249708413093</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.019341113210767</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9552270841090524</v>
+        <v>0.9653216823818629</v>
       </c>
       <c r="D23">
-        <v>0.9840340845383074</v>
+        <v>0.997427044883566</v>
       </c>
       <c r="E23">
-        <v>0.9695846915211068</v>
+        <v>0.978214438748774</v>
       </c>
       <c r="F23">
-        <v>0.9163329726623444</v>
+        <v>0.9273402062241816</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030546461366195</v>
+        <v>1.037307966764071</v>
       </c>
       <c r="J23">
-        <v>0.9873539883504252</v>
+        <v>0.9969634203740815</v>
       </c>
       <c r="K23">
-        <v>0.9996082859994379</v>
+        <v>1.012735647640705</v>
       </c>
       <c r="L23">
-        <v>0.9854563282257407</v>
+        <v>0.9939070413584656</v>
       </c>
       <c r="M23">
-        <v>0.9334098906491596</v>
+        <v>0.9441527718074612</v>
       </c>
       <c r="N23">
-        <v>0.9887561442649683</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9983792227843153</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.020134956272171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.964544475353088</v>
+        <v>0.9735820525344211</v>
       </c>
       <c r="D24">
-        <v>0.991012966385627</v>
+        <v>1.003110180352434</v>
       </c>
       <c r="E24">
-        <v>0.9769904035007293</v>
+        <v>0.9847386020384526</v>
       </c>
       <c r="F24">
-        <v>0.9308283348408665</v>
+        <v>0.9405633526859151</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033427047741738</v>
+        <v>1.039544508029437</v>
       </c>
       <c r="J24">
-        <v>0.9934791417922131</v>
+        <v>1.002136383943006</v>
       </c>
       <c r="K24">
-        <v>1.00519976417566</v>
+        <v>1.017082896999624</v>
       </c>
       <c r="L24">
-        <v>0.9914340128783027</v>
+        <v>0.9990391325037091</v>
       </c>
       <c r="M24">
-        <v>0.9461897825384509</v>
+        <v>0.9557213434632861</v>
       </c>
       <c r="N24">
-        <v>0.9948899961272083</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.003559532554855</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.023201135429411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9747640973209754</v>
+        <v>0.9827021871079521</v>
       </c>
       <c r="D25">
-        <v>0.9986744437272284</v>
+        <v>1.009397113456203</v>
       </c>
       <c r="E25">
-        <v>0.9851517023675403</v>
+        <v>0.9919774344964056</v>
       </c>
       <c r="F25">
-        <v>0.9465732534374325</v>
+        <v>0.9550209508152193</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036513081525859</v>
+        <v>1.041945861958734</v>
       </c>
       <c r="J25">
-        <v>1.00017165461753</v>
+        <v>1.007826051683208</v>
       </c>
       <c r="K25">
-        <v>1.011293372160497</v>
+        <v>1.021851281998843</v>
       </c>
       <c r="L25">
-        <v>0.9979849769509166</v>
+        <v>1.004701580333713</v>
       </c>
       <c r="M25">
-        <v>0.9600617299521296</v>
+        <v>0.9683600921907903</v>
       </c>
       <c r="N25">
-        <v>1.001592013088379</v>
+        <v>1.009257280275861</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.026569817733802</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_1/res_bus/vm_pu.xlsx
@@ -433,43 +433,43 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9896155327043923</v>
+        <v>1.021112519215942</v>
       </c>
       <c r="D2">
-        <v>1.014154412964527</v>
+        <v>1.040651558982093</v>
       </c>
       <c r="E2">
-        <v>0.9974863428900678</v>
+        <v>1.035020050190573</v>
       </c>
       <c r="F2">
-        <v>0.9659105684936335</v>
+        <v>1.046557582252405</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043699472619739</v>
+        <v>1.058442608661789</v>
       </c>
       <c r="J2">
-        <v>1.012111340661285</v>
+        <v>1.042679587686169</v>
       </c>
       <c r="K2">
-        <v>1.025420014377046</v>
+        <v>1.051572178504137</v>
       </c>
       <c r="L2">
-        <v>1.008980808388511</v>
+        <v>1.04601214233958</v>
       </c>
       <c r="M2">
-        <v>0.9778661786575108</v>
+        <v>1.057404274665112</v>
       </c>
       <c r="N2">
-        <v>1.013548654855817</v>
+        <v>1.018039286016822</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.029044235207511</v>
+        <v>1.047536224427962</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -480,43 +480,43 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9944781521091406</v>
+        <v>1.024486619651238</v>
       </c>
       <c r="D3">
-        <v>1.0175103952934</v>
+        <v>1.043003737191843</v>
       </c>
       <c r="E3">
-        <v>1.00137755819362</v>
+        <v>1.037707545082601</v>
       </c>
       <c r="F3">
-        <v>0.9735243778878331</v>
+        <v>1.049378277891512</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04490440117072</v>
+        <v>1.059397942490786</v>
       </c>
       <c r="J3">
-        <v>1.015120488588294</v>
+        <v>1.044331305128987</v>
       </c>
       <c r="K3">
-        <v>1.027924024397754</v>
+        <v>1.053114427441856</v>
       </c>
       <c r="L3">
-        <v>1.011992843198206</v>
+        <v>1.047879655006826</v>
       </c>
       <c r="M3">
-        <v>0.984507615273971</v>
+        <v>1.059416056866395</v>
       </c>
       <c r="N3">
-        <v>1.016562076118037</v>
+        <v>1.018592509495565</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.030812139078499</v>
+        <v>1.048624069083575</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -527,43 +527,43 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9975503102074957</v>
+        <v>1.026635590434357</v>
       </c>
       <c r="D4">
-        <v>1.019631385769158</v>
+        <v>1.044505536973646</v>
       </c>
       <c r="E4">
-        <v>1.003842197877332</v>
+        <v>1.039424675790824</v>
       </c>
       <c r="F4">
-        <v>0.9783204415100898</v>
+        <v>1.051180032438341</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045649746176019</v>
+        <v>1.059998164464554</v>
       </c>
       <c r="J4">
-        <v>1.017016887559552</v>
+        <v>1.045381652710731</v>
       </c>
       <c r="K4">
-        <v>1.029498513081326</v>
+        <v>1.054094928591095</v>
       </c>
       <c r="L4">
-        <v>1.013894471094021</v>
+        <v>1.049069471280263</v>
       </c>
       <c r="M4">
-        <v>0.9886877590158927</v>
+        <v>1.060697639418078</v>
       </c>
       <c r="N4">
-        <v>1.018461168193354</v>
+        <v>1.018944383108633</v>
       </c>
       <c r="Q4">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R4">
-        <v>1.03192637256014</v>
+        <v>1.049318235139487</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -574,43 +574,43 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9988282288246692</v>
+        <v>1.027533817103148</v>
       </c>
       <c r="D5">
-        <v>1.02051557305024</v>
+        <v>1.045135967811302</v>
       </c>
       <c r="E5">
-        <v>1.004869308345336</v>
+        <v>1.040144201080794</v>
       </c>
       <c r="F5">
-        <v>0.9803107089515618</v>
+        <v>1.051935185618755</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045957207005899</v>
+        <v>1.060248442793159</v>
       </c>
       <c r="J5">
-        <v>1.017805794437848</v>
+        <v>1.045821628257418</v>
       </c>
       <c r="K5">
-        <v>1.030153986168872</v>
+        <v>1.054506804326537</v>
       </c>
       <c r="L5">
-        <v>1.014686183544645</v>
+        <v>1.049568034580036</v>
       </c>
       <c r="M5">
-        <v>0.9904219897708135</v>
+        <v>1.061234823761097</v>
       </c>
       <c r="N5">
-        <v>1.019251195409906</v>
+        <v>1.019092069002579</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.03239710334036</v>
+        <v>1.049616537535769</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -621,43 +621,43 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9990459640343597</v>
+        <v>1.027687568469575</v>
       </c>
       <c r="D6">
-        <v>1.02066843709962</v>
+        <v>1.045246174060326</v>
       </c>
       <c r="E6">
-        <v>1.005044944728846</v>
+        <v>1.040268060206498</v>
       </c>
       <c r="F6">
-        <v>0.9806475238316841</v>
+        <v>1.052065514204104</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046010949323609</v>
+        <v>1.060292871420458</v>
       </c>
       <c r="J6">
-        <v>1.01794162674097</v>
+        <v>1.045898571345183</v>
       </c>
       <c r="K6">
-        <v>1.030268453490796</v>
+        <v>1.054580302505954</v>
       </c>
       <c r="L6">
-        <v>1.014822326623967</v>
+        <v>1.049654800908874</v>
       </c>
       <c r="M6">
-        <v>0.9907159279047018</v>
+        <v>1.061328557452313</v>
       </c>
       <c r="N6">
-        <v>1.019387220610479</v>
+        <v>1.019118231112644</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.032486877103915</v>
+        <v>1.049677138202888</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -668,43 +668,43 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9975785561420535</v>
+        <v>1.02665674443439</v>
       </c>
       <c r="D7">
-        <v>1.019656793844728</v>
+        <v>1.044526376073138</v>
       </c>
       <c r="E7">
-        <v>1.00386638692504</v>
+        <v>1.039443284800421</v>
       </c>
       <c r="F7">
-        <v>0.9783587618064904</v>
+        <v>1.051200470055424</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045660774349527</v>
+        <v>1.060008630033672</v>
       </c>
       <c r="J7">
-        <v>1.017038292723976</v>
+        <v>1.04539645196512</v>
       </c>
       <c r="K7">
-        <v>1.02952070510765</v>
+        <v>1.05411271053212</v>
       </c>
       <c r="L7">
-        <v>1.013915385114233</v>
+        <v>1.049085026451909</v>
       </c>
       <c r="M7">
-        <v>0.9887224989147932</v>
+        <v>1.060715051480283</v>
       </c>
       <c r="N7">
-        <v>1.018482603755567</v>
+        <v>1.018950256380443</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.031962389820064</v>
+        <v>1.049350664181052</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -715,43 +715,43 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9912884069014113</v>
+        <v>1.022271371244295</v>
       </c>
       <c r="D8">
-        <v>1.015315797523352</v>
+        <v>1.041466013788186</v>
       </c>
       <c r="E8">
-        <v>0.998825652165529</v>
+        <v>1.035944047910507</v>
       </c>
       <c r="F8">
-        <v>0.9685261955300519</v>
+        <v>1.04752854115842</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04412228320693</v>
+        <v>1.058777973944969</v>
       </c>
       <c r="J8">
-        <v>1.013152367759421</v>
+        <v>1.043252679224234</v>
       </c>
       <c r="K8">
-        <v>1.026292227378039</v>
+        <v>1.052112135295665</v>
       </c>
       <c r="L8">
-        <v>1.010021554271584</v>
+        <v>1.046658188530972</v>
       </c>
       <c r="M8">
-        <v>0.9801500795738065</v>
+        <v>1.05810101040791</v>
       </c>
       <c r="N8">
-        <v>1.01459116033184</v>
+        <v>1.018232395689428</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.029684171182038</v>
+        <v>1.04794063689029</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -762,43 +762,43 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9795811807920605</v>
+        <v>1.014256361601758</v>
       </c>
       <c r="D9">
-        <v>1.007236412493996</v>
+        <v>1.035893714398888</v>
       </c>
       <c r="E9">
-        <v>0.9894933272679185</v>
+        <v>1.029590213260965</v>
       </c>
       <c r="F9">
-        <v>0.950097191060147</v>
+        <v>1.040855961493183</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04112744870645</v>
+        <v>1.056457919193249</v>
       </c>
       <c r="J9">
-        <v>1.005876173061912</v>
+        <v>1.039315543836891</v>
       </c>
       <c r="K9">
-        <v>1.020213164936077</v>
+        <v>1.048430097842576</v>
       </c>
       <c r="L9">
-        <v>1.002759199470026</v>
+        <v>1.042220782937342</v>
       </c>
       <c r="M9">
-        <v>0.9640553526976928</v>
+        <v>1.053319218252912</v>
       </c>
       <c r="N9">
-        <v>1.00730463260327</v>
+        <v>1.016913108540349</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.025382517694799</v>
+        <v>1.04533411531074</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -809,43 +809,43 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9713163289805387</v>
+        <v>1.008717564172759</v>
       </c>
       <c r="D10">
-        <v>1.00154575087333</v>
+        <v>1.03206758459872</v>
       </c>
       <c r="E10">
-        <v>0.9829445086222445</v>
+        <v>1.025231815894301</v>
       </c>
       <c r="F10">
-        <v>0.9369543470570958</v>
+        <v>1.036276524785798</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038933427151813</v>
+        <v>1.054814914719075</v>
       </c>
       <c r="J10">
-        <v>1.000716091823306</v>
+        <v>1.036589526853157</v>
       </c>
       <c r="K10">
-        <v>1.015887152284123</v>
+        <v>1.045881020951913</v>
       </c>
       <c r="L10">
-        <v>0.9976286880642889</v>
+        <v>1.039159971576085</v>
       </c>
       <c r="M10">
-        <v>0.9525635226095315</v>
+        <v>1.050020294286998</v>
       </c>
       <c r="N10">
-        <v>1.002137223457435</v>
+        <v>1.016000549195791</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.022340735941391</v>
+        <v>1.043548421987619</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -856,43 +856,43 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9676267603420433</v>
+        <v>1.006279997192091</v>
       </c>
       <c r="D11">
-        <v>0.9990152469633783</v>
+        <v>1.030396600902873</v>
       </c>
       <c r="E11">
-        <v>0.9800333183402233</v>
+        <v>1.023323936539085</v>
       </c>
       <c r="F11">
-        <v>0.9310396204045416</v>
+        <v>1.034272074548058</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03793973237738</v>
+        <v>1.054087627993862</v>
       </c>
       <c r="J11">
-        <v>0.9984111969666648</v>
+        <v>1.035393834680665</v>
       </c>
       <c r="K11">
-        <v>1.013955758209197</v>
+        <v>1.044767179553239</v>
       </c>
       <c r="L11">
-        <v>0.9953418627266486</v>
+        <v>1.037819006063692</v>
       </c>
       <c r="M11">
-        <v>0.9473907609502161</v>
+        <v>1.048575372327864</v>
       </c>
       <c r="N11">
-        <v>0.9998290553857222</v>
+        <v>1.015601761618507</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.021008555137744</v>
+        <v>1.042793397446252</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -903,43 +903,43 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9662289241093062</v>
+        <v>1.005360413633655</v>
       </c>
       <c r="D12">
-        <v>0.9980537544718822</v>
+        <v>1.02976317091629</v>
       </c>
       <c r="E12">
-        <v>0.9789307089430557</v>
+        <v>1.022604163795796</v>
       </c>
       <c r="F12">
-        <v>0.9287955385474932</v>
+        <v>1.033515288621654</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037558241598148</v>
+        <v>1.0538090175033</v>
       </c>
       <c r="J12">
-        <v>0.9975346427782725</v>
+        <v>1.034939631045417</v>
       </c>
       <c r="K12">
-        <v>1.01321833670469</v>
+        <v>1.044341538465608</v>
       </c>
       <c r="L12">
-        <v>0.9944730101575318</v>
+        <v>1.037310749293661</v>
       </c>
       <c r="M12">
-        <v>0.9454270513087353</v>
+        <v>1.048027375213973</v>
       </c>
       <c r="N12">
-        <v>0.9989512563898407</v>
+        <v>1.015449572619041</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.020487155146821</v>
+        <v>1.042492461185037</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -950,43 +950,43 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9665282436266227</v>
+        <v>1.005556795034378</v>
       </c>
       <c r="D13">
-        <v>0.998258944001282</v>
+        <v>1.029897632094313</v>
       </c>
       <c r="E13">
-        <v>0.9791664891448321</v>
+        <v>1.022757571580052</v>
       </c>
       <c r="F13">
-        <v>0.9292771557346845</v>
+        <v>1.033676498763897</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037639607759756</v>
+        <v>1.053868023417355</v>
       </c>
       <c r="J13">
-        <v>0.9977219043778138</v>
+        <v>1.035036060915086</v>
       </c>
       <c r="K13">
-        <v>1.013375429771227</v>
+        <v>1.044431424367409</v>
       </c>
       <c r="L13">
-        <v>0.9946585974028213</v>
+        <v>1.037418769514938</v>
       </c>
       <c r="M13">
-        <v>0.9458483474582863</v>
+        <v>1.04814378456716</v>
       </c>
       <c r="N13">
-        <v>0.9991387839223327</v>
+        <v>1.015481738530812</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.020595687279598</v>
+        <v>1.042553544521486</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -997,43 +997,43 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9675110120515972</v>
+        <v>1.006203619862927</v>
       </c>
       <c r="D14">
-        <v>0.9989353311667213</v>
+        <v>1.030343642621753</v>
       </c>
       <c r="E14">
-        <v>0.9799418775496044</v>
+        <v>1.023264024058701</v>
       </c>
       <c r="F14">
-        <v>0.9308542712922403</v>
+        <v>1.034209044047646</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037908007084615</v>
+        <v>1.054064278294114</v>
       </c>
       <c r="J14">
-        <v>0.9983384280415806</v>
+        <v>1.035355867768115</v>
       </c>
       <c r="K14">
-        <v>1.01389434881164</v>
+        <v>1.044731394668426</v>
       </c>
       <c r="L14">
-        <v>0.9952697205850211</v>
+        <v>1.037776569477964</v>
       </c>
       <c r="M14">
-        <v>0.9472285058965465</v>
+        <v>1.048529593048108</v>
       </c>
       <c r="N14">
-        <v>0.999756183120418</v>
+        <v>1.01558897853598</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.020964046472046</v>
+        <v>1.042767039731368</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1044,43 +1044,43 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9681167110598504</v>
+        <v>1.006603543005218</v>
       </c>
       <c r="D15">
-        <v>0.9993536246627626</v>
+        <v>1.030621058611624</v>
       </c>
       <c r="E15">
-        <v>0.9804204678546767</v>
+        <v>1.023577810882443</v>
       </c>
       <c r="F15">
-        <v>0.9318238082732661</v>
+        <v>1.03453916746939</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038073961955368</v>
+        <v>1.054186542908613</v>
       </c>
       <c r="J15">
-        <v>0.9987192361467064</v>
+        <v>1.035554721055513</v>
       </c>
       <c r="K15">
-        <v>1.014215745518158</v>
+        <v>1.044918869315608</v>
       </c>
       <c r="L15">
-        <v>0.9956472775456193</v>
+        <v>1.037998836238802</v>
       </c>
       <c r="M15">
-        <v>0.9480772464904257</v>
+        <v>1.048769373490227</v>
       </c>
       <c r="N15">
-        <v>1.000137532016733</v>
+        <v>1.015655945537332</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.021197277664589</v>
+        <v>1.042905400299189</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1088,46 +1088,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.971583409272496</v>
+        <v>1.008899413525869</v>
       </c>
       <c r="D16">
-        <v>1.001740724972468</v>
+        <v>1.032205740832796</v>
       </c>
       <c r="E16">
-        <v>0.9831596674931233</v>
+        <v>1.025378548768488</v>
       </c>
       <c r="F16">
-        <v>0.9373685124188188</v>
+        <v>1.036432310636098</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039012832909552</v>
+        <v>1.054878645227476</v>
       </c>
       <c r="J16">
-        <v>1.000891104476972</v>
+        <v>1.036688667867439</v>
       </c>
       <c r="K16">
-        <v>1.016042035498136</v>
+        <v>1.045981834534268</v>
       </c>
       <c r="L16">
-        <v>0.9978021910065161</v>
+        <v>1.039268842998598</v>
       </c>
       <c r="M16">
-        <v>0.9529284874467809</v>
+        <v>1.05013867484995</v>
       </c>
       <c r="N16">
-        <v>1.002312484649143</v>
+        <v>1.016036062860301</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.022491793485548</v>
+        <v>1.043660074769522</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1138,43 +1138,43 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9737236806051224</v>
+        <v>1.010325660364207</v>
       </c>
       <c r="D17">
-        <v>1.003215569697797</v>
+        <v>1.033191715811109</v>
       </c>
       <c r="E17">
-        <v>0.9848534677145798</v>
+        <v>1.026499331740858</v>
       </c>
       <c r="F17">
-        <v>0.9407803572736251</v>
+        <v>1.037610436435298</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03958769297312</v>
+        <v>1.0553061079178</v>
       </c>
       <c r="J17">
-        <v>1.002230461686534</v>
+        <v>1.037392741047175</v>
       </c>
       <c r="K17">
-        <v>1.017167452261507</v>
+        <v>1.046641769635202</v>
       </c>
       <c r="L17">
-        <v>0.9991323868691452</v>
+        <v>1.040058154855817</v>
       </c>
       <c r="M17">
-        <v>0.9559130094298142</v>
+        <v>1.050989659799561</v>
       </c>
       <c r="N17">
-        <v>1.00365374389957</v>
+        <v>1.016272105825286</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.023290157664976</v>
+        <v>1.044129224344634</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1185,43 +1185,43 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9749524656272582</v>
+        <v>1.011146148609521</v>
       </c>
       <c r="D18">
-        <v>1.00405903266319</v>
+        <v>1.033755354106126</v>
       </c>
       <c r="E18">
-        <v>0.9858255961249018</v>
+        <v>1.027143561872484</v>
       </c>
       <c r="F18">
-        <v>0.9427393869584132</v>
+        <v>1.03828705129673</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039913533611747</v>
+        <v>1.055548126683016</v>
       </c>
       <c r="J18">
-        <v>1.002996316814553</v>
+        <v>1.037794581960602</v>
       </c>
       <c r="K18">
-        <v>1.017808067822692</v>
+        <v>1.047015798595175</v>
       </c>
       <c r="L18">
-        <v>0.9998935675570552</v>
+        <v>1.040509652213452</v>
       </c>
       <c r="M18">
-        <v>0.9576255663171495</v>
+        <v>1.051476080626053</v>
       </c>
       <c r="N18">
-        <v>1.004420686629715</v>
+        <v>1.01640609872046</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.02373126629869</v>
+        <v>1.044382154910104</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1232,43 +1232,43 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9753753925756607</v>
+        <v>1.011430125210455</v>
       </c>
       <c r="D19">
-        <v>1.004352219002431</v>
+        <v>1.033953717068165</v>
       </c>
       <c r="E19">
-        <v>0.9861613206109685</v>
+        <v>1.027367655274973</v>
       </c>
       <c r="F19">
-        <v>0.943409961172114</v>
+        <v>1.038522800721964</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040027298252691</v>
+        <v>1.055634063175525</v>
       </c>
       <c r="J19">
-        <v>1.003261805454366</v>
+        <v>1.037936017934977</v>
       </c>
       <c r="K19">
-        <v>1.018032105424211</v>
+        <v>1.047149475204452</v>
       </c>
       <c r="L19">
-        <v>1.000157429062723</v>
+        <v>1.040668033089114</v>
       </c>
       <c r="M19">
-        <v>0.9582124000629393</v>
+        <v>1.051646975495264</v>
       </c>
       <c r="N19">
-        <v>1.004686552293849</v>
+        <v>1.016453837746857</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.023896175581135</v>
+        <v>1.044482991832165</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1279,43 +1279,43 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9734946984495112</v>
+        <v>1.010172641055284</v>
       </c>
       <c r="D20">
-        <v>1.003057460999624</v>
+        <v>1.033085557761192</v>
       </c>
       <c r="E20">
-        <v>0.9846720558201063</v>
+        <v>1.026378907039787</v>
       </c>
       <c r="F20">
-        <v>0.9404160403732978</v>
+        <v>1.037483817233451</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039526181154125</v>
+        <v>1.055260108624824</v>
       </c>
       <c r="J20">
-        <v>1.002087026108597</v>
+        <v>1.037316979167367</v>
       </c>
       <c r="K20">
-        <v>1.017046760852208</v>
+        <v>1.046570558881803</v>
       </c>
       <c r="L20">
-        <v>0.9989898918290852</v>
+        <v>1.03997324943448</v>
       </c>
       <c r="M20">
-        <v>0.9555942800225988</v>
+        <v>1.05089809581762</v>
       </c>
       <c r="N20">
-        <v>1.003510104626659</v>
+        <v>1.016246648032507</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.023203463513529</v>
+        <v>1.04407755536819</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1326,43 +1326,43 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9672303224397347</v>
+        <v>1.006020320141333</v>
       </c>
       <c r="D21">
-        <v>0.9987458525071352</v>
+        <v>1.030221545685638</v>
       </c>
       <c r="E21">
-        <v>0.9797217713260746</v>
+        <v>1.023121853524208</v>
       </c>
       <c r="F21">
-        <v>0.9303998053811989</v>
+        <v>1.034060063070186</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0378339120312</v>
+        <v>1.054011815361583</v>
       </c>
       <c r="J21">
-        <v>0.9981650262934397</v>
+        <v>1.03526847303042</v>
       </c>
       <c r="K21">
-        <v>1.013751024115763</v>
+        <v>1.044652123324355</v>
       </c>
       <c r="L21">
-        <v>0.9950977816757851</v>
+        <v>1.037678028066215</v>
       </c>
       <c r="M21">
-        <v>0.9468317048105316</v>
+        <v>1.048423665201915</v>
       </c>
       <c r="N21">
-        <v>0.9995825351219053</v>
+        <v>1.015560476636563</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.020876482696975</v>
+        <v>1.042724369072539</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1373,43 +1373,43 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9631644719361623</v>
+        <v>1.003354491623341</v>
       </c>
       <c r="D22">
-        <v>0.9959468436570461</v>
+        <v>1.028382617431183</v>
       </c>
       <c r="E22">
-        <v>0.9765162972914792</v>
+        <v>1.021036230728778</v>
       </c>
       <c r="F22">
-        <v>0.9238621423193688</v>
+        <v>1.031866485083089</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03671674204872</v>
+        <v>1.053198385007632</v>
       </c>
       <c r="J22">
-        <v>0.9956110888968875</v>
+        <v>1.033948155362061</v>
       </c>
       <c r="K22">
-        <v>1.011599024260748</v>
+        <v>1.043412026028844</v>
       </c>
       <c r="L22">
-        <v>0.9925677808062098</v>
+        <v>1.036202165542539</v>
       </c>
       <c r="M22">
-        <v>0.9411094627285171</v>
+        <v>1.0468320335557</v>
       </c>
       <c r="N22">
-        <v>0.9970249708413093</v>
+        <v>1.015117296855181</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.019341113210767</v>
+        <v>1.041834219179505</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1420,43 +1420,43 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9653216823818629</v>
+        <v>1.00476388757782</v>
       </c>
       <c r="D23">
-        <v>0.997427044883566</v>
+        <v>1.029349173234784</v>
       </c>
       <c r="E23">
-        <v>0.978214438748774</v>
+        <v>1.02213652671592</v>
       </c>
       <c r="F23">
-        <v>0.9273402062241816</v>
+        <v>1.033023182812535</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037307966764071</v>
+        <v>1.053625477718907</v>
       </c>
       <c r="J23">
-        <v>0.9969634203740815</v>
+        <v>1.034642431958401</v>
       </c>
       <c r="K23">
-        <v>1.012735647640705</v>
+        <v>1.04406092193057</v>
       </c>
       <c r="L23">
-        <v>0.9939070413584656</v>
+        <v>1.036978887560447</v>
       </c>
       <c r="M23">
-        <v>0.9441527718074612</v>
+        <v>1.047669309654603</v>
       </c>
       <c r="N23">
-        <v>0.9983792227843153</v>
+        <v>1.01534936564245</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.020134956272171</v>
+        <v>1.042283472126986</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1467,43 +1467,43 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9735820525344211</v>
+        <v>1.010228092246846</v>
       </c>
       <c r="D24">
-        <v>1.003110180352434</v>
+        <v>1.033115434058099</v>
       </c>
       <c r="E24">
-        <v>0.9847386020384526</v>
+        <v>1.026419859893316</v>
       </c>
       <c r="F24">
-        <v>0.9405633526859151</v>
+        <v>1.037525807325685</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039544508029437</v>
+        <v>1.05527052612605</v>
       </c>
       <c r="J24">
-        <v>1.002136383943006</v>
+        <v>1.03733802649823</v>
       </c>
       <c r="K24">
-        <v>1.017082896999624</v>
+        <v>1.046584934914745</v>
       </c>
       <c r="L24">
-        <v>0.9990391325037091</v>
+        <v>1.039998372255256</v>
       </c>
       <c r="M24">
-        <v>0.9557213434632861</v>
+        <v>1.050924487675102</v>
       </c>
       <c r="N24">
-        <v>1.003559532554855</v>
+        <v>1.016252179638018</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.023201135429411</v>
+        <v>1.044060612967343</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1514,43 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9827021871079521</v>
+        <v>1.016376639720076</v>
       </c>
       <c r="D25">
-        <v>1.009397113456203</v>
+        <v>1.037373180200198</v>
       </c>
       <c r="E25">
-        <v>0.9919774344964056</v>
+        <v>1.03126840261744</v>
       </c>
       <c r="F25">
-        <v>0.9550209508152193</v>
+        <v>1.042620025073181</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041945861958734</v>
+        <v>1.057085743463552</v>
       </c>
       <c r="J25">
-        <v>1.007826051683208</v>
+        <v>1.04036516027235</v>
       </c>
       <c r="K25">
-        <v>1.021851281998843</v>
+        <v>1.049417761713629</v>
       </c>
       <c r="L25">
-        <v>1.004701580333713</v>
+        <v>1.04339996132506</v>
       </c>
       <c r="M25">
-        <v>0.9683600921907903</v>
+        <v>1.05459088018758</v>
       </c>
       <c r="N25">
-        <v>1.009257280275861</v>
+        <v>1.017266296642117</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.026569817733802</v>
+        <v>1.046060693874175</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_1/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021112519215942</v>
+        <v>1.019745790463309</v>
       </c>
       <c r="D2">
-        <v>1.040651558982093</v>
+        <v>1.038514025311069</v>
       </c>
       <c r="E2">
-        <v>1.035020050190573</v>
+        <v>1.033692274595272</v>
       </c>
       <c r="F2">
-        <v>1.046557582252405</v>
+        <v>1.044866896527316</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.058442608661789</v>
+        <v>1.057268631237214</v>
       </c>
       <c r="J2">
-        <v>1.042679587686169</v>
+        <v>1.041351531945536</v>
       </c>
       <c r="K2">
-        <v>1.051572178504137</v>
+        <v>1.049461659526111</v>
       </c>
       <c r="L2">
-        <v>1.04601214233958</v>
+        <v>1.044701360090876</v>
       </c>
       <c r="M2">
-        <v>1.057404274665112</v>
+        <v>1.055734645257208</v>
       </c>
       <c r="N2">
-        <v>1.018039286016822</v>
+        <v>1.018105727500849</v>
       </c>
       <c r="Q2">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R2">
-        <v>1.047536224427962</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.046052612023946</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.0251436371552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024486619651238</v>
+        <v>1.022997844690848</v>
       </c>
       <c r="D3">
-        <v>1.043003737191843</v>
+        <v>1.040701909943311</v>
       </c>
       <c r="E3">
-        <v>1.037707545082601</v>
+        <v>1.036262699818774</v>
       </c>
       <c r="F3">
-        <v>1.049378277891512</v>
+        <v>1.04755038913539</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.059397942490786</v>
+        <v>1.058127520154155</v>
       </c>
       <c r="J3">
-        <v>1.044331305128987</v>
+        <v>1.04288061168702</v>
       </c>
       <c r="K3">
-        <v>1.053114427441856</v>
+        <v>1.05083919944997</v>
       </c>
       <c r="L3">
-        <v>1.047879655006826</v>
+        <v>1.046451700388582</v>
       </c>
       <c r="M3">
-        <v>1.059416056866395</v>
+        <v>1.057608963353806</v>
       </c>
       <c r="N3">
-        <v>1.018592509495565</v>
+        <v>1.018512321583801</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.048624069083575</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.047023721809629</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025412316802031</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026635590434357</v>
+        <v>1.025069678906032</v>
       </c>
       <c r="D4">
-        <v>1.044505536973646</v>
+        <v>1.042099458198562</v>
       </c>
       <c r="E4">
-        <v>1.039424675790824</v>
+        <v>1.037905738756802</v>
       </c>
       <c r="F4">
-        <v>1.051180032438341</v>
+        <v>1.049265220930033</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.059998164464554</v>
+        <v>1.05866645138824</v>
       </c>
       <c r="J4">
-        <v>1.045381652710731</v>
+        <v>1.043853135409028</v>
       </c>
       <c r="K4">
-        <v>1.054094928591095</v>
+        <v>1.051715004066688</v>
       </c>
       <c r="L4">
-        <v>1.049069471280263</v>
+        <v>1.047567226778791</v>
       </c>
       <c r="M4">
-        <v>1.060697639418078</v>
+        <v>1.05880330738292</v>
       </c>
       <c r="N4">
-        <v>1.018944383108633</v>
+        <v>1.018771010102335</v>
       </c>
       <c r="Q4">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.049318235139487</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047643944157708</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025580920903643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027533817103148</v>
+        <v>1.025935791575505</v>
       </c>
       <c r="D5">
-        <v>1.045135967811302</v>
+        <v>1.042686451775733</v>
       </c>
       <c r="E5">
-        <v>1.040144201080794</v>
+        <v>1.038594400505673</v>
       </c>
       <c r="F5">
-        <v>1.051935185618755</v>
+        <v>1.049984164988664</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.060248442793159</v>
+        <v>1.05889115917732</v>
       </c>
       <c r="J5">
-        <v>1.045821628257418</v>
+        <v>1.0442606441648</v>
       </c>
       <c r="K5">
-        <v>1.054506804326537</v>
+        <v>1.052083216910348</v>
       </c>
       <c r="L5">
-        <v>1.049568034580036</v>
+        <v>1.048034814996048</v>
       </c>
       <c r="M5">
-        <v>1.061234823761097</v>
+        <v>1.059304118117489</v>
       </c>
       <c r="N5">
-        <v>1.019092069002579</v>
+        <v>1.018879638691585</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.049616537535769</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04791208643522</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025651701547808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027687568469575</v>
+        <v>1.026084044774986</v>
       </c>
       <c r="D6">
-        <v>1.045246174060326</v>
+        <v>1.042789286789979</v>
       </c>
       <c r="E6">
-        <v>1.040268060206498</v>
+        <v>1.038712979183398</v>
       </c>
       <c r="F6">
-        <v>1.052065514204104</v>
+        <v>1.050108322281306</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.060292871420458</v>
+        <v>1.05893123337759</v>
       </c>
       <c r="J6">
-        <v>1.045898571345183</v>
+        <v>1.044332028837527</v>
       </c>
       <c r="K6">
-        <v>1.054580302505954</v>
+        <v>1.052149304582245</v>
       </c>
       <c r="L6">
-        <v>1.049654800908874</v>
+        <v>1.048116281650257</v>
       </c>
       <c r="M6">
-        <v>1.061328557452313</v>
+        <v>1.059391652081773</v>
       </c>
       <c r="N6">
-        <v>1.019118231112644</v>
+        <v>1.01889892602084</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.049677138202888</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.047968317270184</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025664899577602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02665674443439</v>
+        <v>1.025096753033703</v>
       </c>
       <c r="D7">
-        <v>1.044526376073138</v>
+        <v>1.042124397736156</v>
       </c>
       <c r="E7">
-        <v>1.039443284800421</v>
+        <v>1.037929495128706</v>
       </c>
       <c r="F7">
-        <v>1.051200470055424</v>
+        <v>1.049290403569872</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.060008630033672</v>
+        <v>1.058680016477885</v>
       </c>
       <c r="J7">
-        <v>1.04539645196512</v>
+        <v>1.043873697530676</v>
       </c>
       <c r="K7">
-        <v>1.05411271053212</v>
+        <v>1.05173683179323</v>
       </c>
       <c r="L7">
-        <v>1.049085026451909</v>
+        <v>1.04758786637765</v>
       </c>
       <c r="M7">
-        <v>1.060715051480283</v>
+        <v>1.058825405856501</v>
       </c>
       <c r="N7">
-        <v>1.018950256380443</v>
+        <v>1.018802906864906</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.049350664181052</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04768123490965</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02558709880477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022271371244295</v>
+        <v>1.02088309011511</v>
       </c>
       <c r="D8">
-        <v>1.041466013788186</v>
+        <v>1.039287374904468</v>
       </c>
       <c r="E8">
-        <v>1.035944047910507</v>
+        <v>1.03459398750872</v>
       </c>
       <c r="F8">
-        <v>1.04752854115842</v>
+        <v>1.045807683696219</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.058777973944969</v>
+        <v>1.05758205256331</v>
       </c>
       <c r="J8">
-        <v>1.043252679224234</v>
+        <v>1.041902386712426</v>
       </c>
       <c r="K8">
-        <v>1.052112135295665</v>
+        <v>1.049960225291117</v>
       </c>
       <c r="L8">
-        <v>1.046658188530972</v>
+        <v>1.045324895653814</v>
       </c>
       <c r="M8">
-        <v>1.05810101040791</v>
+        <v>1.056400951450702</v>
       </c>
       <c r="N8">
-        <v>1.018232395689428</v>
+        <v>1.018331262138886</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04794063689029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046430028585096</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025244784853635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014256361601758</v>
+        <v>1.013164730897745</v>
       </c>
       <c r="D9">
-        <v>1.035893714398888</v>
+        <v>1.034109738683495</v>
       </c>
       <c r="E9">
-        <v>1.029590213260965</v>
+        <v>1.028523757045032</v>
       </c>
       <c r="F9">
-        <v>1.040855961493183</v>
+        <v>1.039466285335159</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.056457919193249</v>
+        <v>1.055493441355141</v>
       </c>
       <c r="J9">
-        <v>1.039315543836891</v>
+        <v>1.038261022585626</v>
       </c>
       <c r="K9">
-        <v>1.048430097842576</v>
+        <v>1.046672629954695</v>
       </c>
       <c r="L9">
-        <v>1.042220782937342</v>
+        <v>1.041170407014117</v>
       </c>
       <c r="M9">
-        <v>1.053319218252912</v>
+        <v>1.051949931835925</v>
       </c>
       <c r="N9">
-        <v>1.016913108540349</v>
+        <v>1.017372129866202</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.04533411531074</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.044102113285339</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024589839187267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.008717564172759</v>
+        <v>1.007864795328103</v>
       </c>
       <c r="D10">
-        <v>1.03206758459872</v>
+        <v>1.030580996853711</v>
       </c>
       <c r="E10">
-        <v>1.025231815894301</v>
+        <v>1.024390603270228</v>
       </c>
       <c r="F10">
-        <v>1.036276524785798</v>
+        <v>1.035143469279246</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.054814914719075</v>
+        <v>1.05402739523099</v>
       </c>
       <c r="J10">
-        <v>1.036589526853157</v>
+        <v>1.035769811038115</v>
       </c>
       <c r="K10">
-        <v>1.045881020951913</v>
+        <v>1.044419214588387</v>
       </c>
       <c r="L10">
-        <v>1.039159971576085</v>
+        <v>1.038333012923155</v>
       </c>
       <c r="M10">
-        <v>1.050020294286998</v>
+        <v>1.048905921531248</v>
       </c>
       <c r="N10">
-        <v>1.016000549195791</v>
+        <v>1.016826710610791</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.043548421987619</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042527145346003</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024132461067466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.006279997192091</v>
+        <v>1.005581129919894</v>
       </c>
       <c r="D11">
-        <v>1.030396600902873</v>
+        <v>1.029077082931149</v>
       </c>
       <c r="E11">
-        <v>1.023323936539085</v>
+        <v>1.02262468395499</v>
       </c>
       <c r="F11">
-        <v>1.034272074548058</v>
+        <v>1.033292358412656</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.054087627993862</v>
+        <v>1.05340394990329</v>
       </c>
       <c r="J11">
-        <v>1.035393834680665</v>
+        <v>1.034723556531051</v>
       </c>
       <c r="K11">
-        <v>1.044767179553239</v>
+        <v>1.043470719124121</v>
       </c>
       <c r="L11">
-        <v>1.037819006063692</v>
+        <v>1.037132182913881</v>
       </c>
       <c r="M11">
-        <v>1.048575372327864</v>
+        <v>1.047612603060291</v>
       </c>
       <c r="N11">
-        <v>1.015601761618507</v>
+        <v>1.016777534258511</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042793397446252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041892247474333</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023942937480595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.005360413633655</v>
+        <v>1.004724192294429</v>
       </c>
       <c r="D12">
-        <v>1.02976317091629</v>
+        <v>1.028509959482933</v>
       </c>
       <c r="E12">
-        <v>1.022604163795796</v>
+        <v>1.021962526734944</v>
       </c>
       <c r="F12">
-        <v>1.033515288621654</v>
+        <v>1.032597190660356</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.0538090175033</v>
+        <v>1.053166873511779</v>
       </c>
       <c r="J12">
-        <v>1.034939631045417</v>
+        <v>1.034329952855283</v>
       </c>
       <c r="K12">
-        <v>1.044341538465608</v>
+        <v>1.043110604785051</v>
       </c>
       <c r="L12">
-        <v>1.037310749293661</v>
+        <v>1.036680718036976</v>
       </c>
       <c r="M12">
-        <v>1.048027375213973</v>
+        <v>1.047125437696104</v>
       </c>
       <c r="N12">
-        <v>1.015449572619041</v>
+        <v>1.016774480288026</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042492461185037</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041637644536973</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023870110521704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.005556795034378</v>
+        <v>1.004907005479149</v>
       </c>
       <c r="D13">
-        <v>1.029897632094313</v>
+        <v>1.028630100952425</v>
       </c>
       <c r="E13">
-        <v>1.022757571580052</v>
+        <v>1.022103465309343</v>
       </c>
       <c r="F13">
-        <v>1.033676498763897</v>
+        <v>1.032745078730513</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.053868023417355</v>
+        <v>1.053216904138689</v>
       </c>
       <c r="J13">
-        <v>1.035036060915086</v>
+        <v>1.034413267054006</v>
       </c>
       <c r="K13">
-        <v>1.044431424367409</v>
+        <v>1.043186343237483</v>
       </c>
       <c r="L13">
-        <v>1.037418769514938</v>
+        <v>1.036776450669892</v>
       </c>
       <c r="M13">
-        <v>1.04814378456716</v>
+        <v>1.0472286985647</v>
       </c>
       <c r="N13">
-        <v>1.015481738530812</v>
+        <v>1.016774054546487</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042553544521486</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.041688481710725</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023885251779993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.006203619862927</v>
+        <v>1.005509867315838</v>
       </c>
       <c r="D14">
-        <v>1.030343642621753</v>
+        <v>1.029029558163334</v>
       </c>
       <c r="E14">
-        <v>1.023264024058701</v>
+        <v>1.022569479716971</v>
       </c>
       <c r="F14">
-        <v>1.034209044047646</v>
+        <v>1.033234369825891</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.054064278294114</v>
+        <v>1.05338400092194</v>
       </c>
       <c r="J14">
-        <v>1.035355867768115</v>
+        <v>1.034690541533017</v>
       </c>
       <c r="K14">
-        <v>1.044731394668426</v>
+        <v>1.043440305595736</v>
       </c>
       <c r="L14">
-        <v>1.037776569477964</v>
+        <v>1.037094388783761</v>
       </c>
       <c r="M14">
-        <v>1.048529593048108</v>
+        <v>1.047571802952924</v>
       </c>
       <c r="N14">
-        <v>1.01558897853598</v>
+        <v>1.016776794063483</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042767039731368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041869583815414</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023936711561719</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.006603543005218</v>
+        <v>1.005883190191289</v>
       </c>
       <c r="D15">
-        <v>1.030621058611624</v>
+        <v>1.029278659407899</v>
       </c>
       <c r="E15">
-        <v>1.023577810882443</v>
+        <v>1.022858773869631</v>
       </c>
       <c r="F15">
-        <v>1.03453916746939</v>
+        <v>1.033538244295791</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.054186542908613</v>
+        <v>1.053488554128425</v>
       </c>
       <c r="J15">
-        <v>1.035554721055513</v>
+        <v>1.034863632370572</v>
       </c>
       <c r="K15">
-        <v>1.044918869315608</v>
+        <v>1.043599785674846</v>
       </c>
       <c r="L15">
-        <v>1.037998836238802</v>
+        <v>1.03729250187322</v>
       </c>
       <c r="M15">
-        <v>1.048769373490227</v>
+        <v>1.047785657635208</v>
       </c>
       <c r="N15">
-        <v>1.015655945537332</v>
+        <v>1.016781385406116</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042905400299189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041988721235048</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023969377640896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.008899413525869</v>
+        <v>1.008036020707695</v>
       </c>
       <c r="D16">
-        <v>1.032205740832796</v>
+        <v>1.030707678028888</v>
       </c>
       <c r="E16">
-        <v>1.025378548768488</v>
+        <v>1.024527470715616</v>
       </c>
       <c r="F16">
-        <v>1.036432310636098</v>
+        <v>1.035288640768392</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.054878645227476</v>
+        <v>1.05408395519182</v>
       </c>
       <c r="J16">
-        <v>1.036688667867439</v>
+        <v>1.035858616462367</v>
       </c>
       <c r="K16">
-        <v>1.045981834534268</v>
+        <v>1.044508663406551</v>
       </c>
       <c r="L16">
-        <v>1.039268842998598</v>
+        <v>1.038432138852286</v>
       </c>
       <c r="M16">
-        <v>1.05013867484995</v>
+        <v>1.049013800849549</v>
       </c>
       <c r="N16">
-        <v>1.016036062860301</v>
+        <v>1.016839585311376</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.043660074769522</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.042634751143194</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024153438422742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.010325660364207</v>
+        <v>1.009383095315928</v>
       </c>
       <c r="D17">
-        <v>1.033191715811109</v>
+        <v>1.031604093888754</v>
       </c>
       <c r="E17">
-        <v>1.026499331740858</v>
+        <v>1.025574747250477</v>
       </c>
       <c r="F17">
-        <v>1.037610436435298</v>
+        <v>1.036386105787251</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.0553061079178</v>
+        <v>1.054456445191469</v>
       </c>
       <c r="J17">
-        <v>1.037392741047175</v>
+        <v>1.036485409830592</v>
       </c>
       <c r="K17">
-        <v>1.046641769635202</v>
+        <v>1.045079786926749</v>
       </c>
       <c r="L17">
-        <v>1.040058154855817</v>
+        <v>1.03914874088268</v>
       </c>
       <c r="M17">
-        <v>1.050989659799561</v>
+        <v>1.049784877165983</v>
       </c>
       <c r="N17">
-        <v>1.016272105825286</v>
+        <v>1.016912350685001</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.044129224344634</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.043041355375071</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024269220675472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.011146148609521</v>
+        <v>1.010161871490802</v>
       </c>
       <c r="D18">
-        <v>1.033755354106126</v>
+        <v>1.032118927375418</v>
       </c>
       <c r="E18">
-        <v>1.027143561872484</v>
+        <v>1.026180061028264</v>
       </c>
       <c r="F18">
-        <v>1.03828705129673</v>
+        <v>1.037019449926049</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.055548126683016</v>
+        <v>1.054668828439097</v>
       </c>
       <c r="J18">
-        <v>1.037794581960602</v>
+        <v>1.036846397160888</v>
       </c>
       <c r="K18">
-        <v>1.047015798595175</v>
+        <v>1.045405357834398</v>
       </c>
       <c r="L18">
-        <v>1.040509652213452</v>
+        <v>1.039561692434534</v>
       </c>
       <c r="M18">
-        <v>1.051476080626053</v>
+        <v>1.050228374970837</v>
       </c>
       <c r="N18">
-        <v>1.01640609872046</v>
+        <v>1.016967001679591</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.044382154910104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.043258886688842</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024334346838071</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.011430125210455</v>
+        <v>1.010432065481067</v>
       </c>
       <c r="D19">
-        <v>1.033953717068165</v>
+        <v>1.032300966537151</v>
       </c>
       <c r="E19">
-        <v>1.027367655274973</v>
+        <v>1.026391254701759</v>
       </c>
       <c r="F19">
-        <v>1.038522800721964</v>
+        <v>1.037240792819631</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.055634063175525</v>
+        <v>1.054744884865163</v>
       </c>
       <c r="J19">
-        <v>1.037936017934977</v>
+        <v>1.036974314527171</v>
       </c>
       <c r="K19">
-        <v>1.047149475204452</v>
+        <v>1.045522817976698</v>
       </c>
       <c r="L19">
-        <v>1.040668033089114</v>
+        <v>1.039707289227223</v>
       </c>
       <c r="M19">
-        <v>1.051646975495264</v>
+        <v>1.050384971288079</v>
       </c>
       <c r="N19">
-        <v>1.016453837746857</v>
+        <v>1.016989802210068</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.044482991832165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.043348880869937</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024358591631532</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010172641055284</v>
+        <v>1.009238179065743</v>
       </c>
       <c r="D20">
-        <v>1.033085557761192</v>
+        <v>1.031507247674157</v>
       </c>
       <c r="E20">
-        <v>1.026378907039787</v>
+        <v>1.025461866002802</v>
       </c>
       <c r="F20">
-        <v>1.037483817233451</v>
+        <v>1.036267814315068</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.055260108624824</v>
+        <v>1.0544161341428</v>
       </c>
       <c r="J20">
-        <v>1.037316979167367</v>
+        <v>1.036417571264858</v>
       </c>
       <c r="K20">
-        <v>1.046570558881803</v>
+        <v>1.045017816330965</v>
       </c>
       <c r="L20">
-        <v>1.03997324943448</v>
+        <v>1.03907130228517</v>
       </c>
       <c r="M20">
-        <v>1.05089809581762</v>
+        <v>1.049701568808627</v>
       </c>
       <c r="N20">
-        <v>1.016246648032507</v>
+        <v>1.016902918706073</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.04407755536819</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.042996089942403</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024256579518066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.006020320141333</v>
+        <v>1.005355367908419</v>
       </c>
       <c r="D21">
-        <v>1.030221545685638</v>
+        <v>1.028932886485877</v>
       </c>
       <c r="E21">
-        <v>1.023121853524208</v>
+        <v>1.022453184039388</v>
       </c>
       <c r="F21">
-        <v>1.034060063070186</v>
+        <v>1.033111237460787</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.054011815361583</v>
+        <v>1.053348643706385</v>
       </c>
       <c r="J21">
-        <v>1.03526847303042</v>
+        <v>1.034630877340845</v>
       </c>
       <c r="K21">
-        <v>1.044652123324355</v>
+        <v>1.043386094231345</v>
       </c>
       <c r="L21">
-        <v>1.037678028066215</v>
+        <v>1.037021304373202</v>
       </c>
       <c r="M21">
-        <v>1.048423665201915</v>
+        <v>1.047491335013055</v>
       </c>
       <c r="N21">
-        <v>1.015560476636563</v>
+        <v>1.016842995516304</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042724369072539</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041845945320486</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023928112103321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.003354491623341</v>
+        <v>1.00286139426163</v>
       </c>
       <c r="D22">
-        <v>1.028382617431183</v>
+        <v>1.027278818747557</v>
       </c>
       <c r="E22">
-        <v>1.021036230728778</v>
+        <v>1.020526047371505</v>
       </c>
       <c r="F22">
-        <v>1.031866485083089</v>
+        <v>1.03108819147123</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.053198385007632</v>
+        <v>1.052650180643458</v>
       </c>
       <c r="J22">
-        <v>1.033948155362061</v>
+        <v>1.033476509444613</v>
       </c>
       <c r="K22">
-        <v>1.043412026028844</v>
+        <v>1.042328578010997</v>
       </c>
       <c r="L22">
-        <v>1.036202165542539</v>
+        <v>1.035701558827767</v>
       </c>
       <c r="M22">
-        <v>1.0468320335557</v>
+        <v>1.046067957512723</v>
       </c>
       <c r="N22">
-        <v>1.015117296855181</v>
+        <v>1.01679191885661</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.041834219179505</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041083584178656</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023711811916648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.00476388757782</v>
+        <v>1.00416935552961</v>
       </c>
       <c r="D23">
-        <v>1.029349173234784</v>
+        <v>1.028139667821812</v>
       </c>
       <c r="E23">
-        <v>1.02213652671592</v>
+        <v>1.021533215530173</v>
       </c>
       <c r="F23">
-        <v>1.033023182812535</v>
+        <v>1.032145909333426</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.053625477718907</v>
+        <v>1.05301079227277</v>
       </c>
       <c r="J23">
-        <v>1.034642431958401</v>
+        <v>1.034073015678075</v>
       </c>
       <c r="K23">
-        <v>1.04406092193057</v>
+        <v>1.042873152970311</v>
       </c>
       <c r="L23">
-        <v>1.036978887560447</v>
+        <v>1.036386610443191</v>
       </c>
       <c r="M23">
-        <v>1.047669309654603</v>
+        <v>1.046807650131038</v>
       </c>
       <c r="N23">
-        <v>1.01534936564245</v>
+        <v>1.016774844626837</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042283472126986</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041458135420325</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023821326497598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010228092246846</v>
+        <v>1.009290717919503</v>
       </c>
       <c r="D24">
-        <v>1.033115434058099</v>
+        <v>1.031533536637066</v>
       </c>
       <c r="E24">
-        <v>1.026419859893316</v>
+        <v>1.025500119971936</v>
       </c>
       <c r="F24">
-        <v>1.037525807325685</v>
+        <v>1.036306728917942</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.05527052612605</v>
+        <v>1.054424421638984</v>
       </c>
       <c r="J24">
-        <v>1.03733802649823</v>
+        <v>1.036435760966184</v>
       </c>
       <c r="K24">
-        <v>1.046584934914745</v>
+        <v>1.04502862862097</v>
       </c>
       <c r="L24">
-        <v>1.039998372255256</v>
+        <v>1.039093749769401</v>
       </c>
       <c r="M24">
-        <v>1.050924487675102</v>
+        <v>1.049724907575544</v>
       </c>
       <c r="N24">
-        <v>1.016252179638018</v>
+        <v>1.016902662144388</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.044060612967343</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.042973951689737</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024256846240655</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016376639720076</v>
+        <v>1.015197615790573</v>
       </c>
       <c r="D25">
-        <v>1.037373180200198</v>
+        <v>1.035478522896206</v>
       </c>
       <c r="E25">
-        <v>1.03126840261744</v>
+        <v>1.030119154453049</v>
       </c>
       <c r="F25">
-        <v>1.042620025073181</v>
+        <v>1.041135494971986</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.057085743463552</v>
+        <v>1.05605551355407</v>
       </c>
       <c r="J25">
-        <v>1.04036516027235</v>
+        <v>1.039224125131518</v>
       </c>
       <c r="K25">
-        <v>1.049417761713629</v>
+        <v>1.047549959528976</v>
       </c>
       <c r="L25">
-        <v>1.04339996132506</v>
+        <v>1.042267232999323</v>
       </c>
       <c r="M25">
-        <v>1.05459088018758</v>
+        <v>1.053127114870694</v>
       </c>
       <c r="N25">
-        <v>1.017266296642117</v>
+        <v>1.017596668465878</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.046060693874175</v>
+        <v>1.044753488231857</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024768060508249</v>
       </c>
     </row>
   </sheetData>
